--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEEA011-4215-480B-9638-6E0E03AFAE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BD77E3-681F-4BC1-8286-3479795CE181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="445" xr2:uid="{9E40B278-673A-417E-9A41-08ACE2830EAA}"/>
   </bookViews>
@@ -113,7 +113,7 @@
     <definedName name="CO">[5]corcerviz!$A$8:$T$38</definedName>
     <definedName name="CONCERDIESEL">#REF!</definedName>
     <definedName name="ConsumoPropio_Items">'Boleta ENEL'!$C$30:$G$31</definedName>
-    <definedName name="ConsumoPropioGnsVendioEnel_Items">'Boleta ENEL'!$C$33:$G$34</definedName>
+    <definedName name="ConsumoPropioGnsVendioEnel_Items">'Boleta ENEL'!$C$37:$G$38</definedName>
     <definedName name="CORD2">#REF!</definedName>
     <definedName name="DDD">#REF!</definedName>
     <definedName name="DDDD">#REF!</definedName>
@@ -209,13 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
-  <si>
-    <t>BALANCE DE ENERGIA DIARIA</t>
-  </si>
-  <si>
-    <t>UNNA Energía-IG-F-002</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
   <si>
     <t>Versión / Fecha</t>
   </si>
@@ -224,12 +218,6 @@
   </si>
   <si>
     <t>Aprob:</t>
-  </si>
-  <si>
-    <t>JPG</t>
-  </si>
-  <si>
-    <t>GOG</t>
   </si>
   <si>
     <t>BALANCE DE ENERGIA DIARIO DE GNA, GNS Y COMPONENTES PESADOS</t>
@@ -371,9 +359,6 @@
     <t>{{GnsConsumoPropio}}</t>
   </si>
   <si>
-    <t>{{Recuperacion}}</t>
-  </si>
-  <si>
     <t>{{DiferenciaEnergetica}}</t>
   </si>
   <si>
@@ -383,28 +368,189 @@
     <t>{{Comentario}}</t>
   </si>
   <si>
-    <t>05 / 26-07-23</t>
-  </si>
-  <si>
     <t>{{Fecha}}</t>
   </si>
   <si>
-    <t>{{item.Nombre}}</t>
+    <t>{{EntregaGnaEnergia}}</t>
   </si>
   <si>
-    <t>{{item.Distribucion}}</t>
+    <t>Com. Pesados ó LGN Recuperados</t>
   </si>
   <si>
-    <t>{{item.Volumen}}</t>
+    <t>Producción de GLP</t>
   </si>
   <si>
-    <t>{{item.PoderCalorifico}}</t>
+    <t>Producción de CGN</t>
   </si>
   <si>
-    <t>{{item.Energia}}</t>
+    <t>{{ComPesadoEnel}}</t>
   </si>
   <si>
-    <t>{{EntregaGnaEnergia}}</t>
+    <t>{{ComPesadoBlTotal}}</t>
+  </si>
+  <si>
+    <t>{{ProduccionGlpEnel}}</t>
+  </si>
+  <si>
+    <t>{{ProduccionGlpTotal}}</t>
+  </si>
+  <si>
+    <t>{{ProduccionCgnEnel}}</t>
+  </si>
+  <si>
+    <t>{{ProduccionCgnTotal}}</t>
+  </si>
+  <si>
+    <t>{{PorcentajeEficiencia}}</t>
+  </si>
+  <si>
+    <t>{{RecuperacionBarriles}}</t>
+  </si>
+  <si>
+    <t>{{RecuperacionEnergia}}</t>
+  </si>
+  <si>
+    <t>{{GnsConsumoPropioEnergia}}</t>
+  </si>
+  <si>
+    <t>{{GnsRestituidoEnergia}}</t>
+  </si>
+  <si>
+    <t>{{NombreReporte}}</t>
+  </si>
+  <si>
+    <t>{{Compania}}</t>
+  </si>
+  <si>
+    <t>{{VersionFecha}}</t>
+  </si>
+  <si>
+    <t>{{Revisor}}</t>
+  </si>
+  <si>
+    <t>{{AprobadoPor}}</t>
+  </si>
+  <si>
+    <t>GNS Vendido Lote IV</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>{{GnsVolumen}}</t>
+  </si>
+  <si>
+    <t>{{GnsPc}}</t>
+  </si>
+  <si>
+    <t>{{GnsEnergia}}</t>
+  </si>
+  <si>
+    <t>{{GnsVolumenTotal}}</t>
+  </si>
+  <si>
+    <t>{{GnsPcTotal}}</t>
+  </si>
+  <si>
+    <t>{{GnsEnergiaTotal}}</t>
+  </si>
+  <si>
+    <t>Pñs. a Malacas (Ducto N° 3 )</t>
+  </si>
+  <si>
+    <t>Pñs. a Refinería</t>
+  </si>
+  <si>
+    <t>Ajuste Balance GNS</t>
+  </si>
+  <si>
+    <t>Humedad en GNA</t>
+  </si>
+  <si>
+    <t>Gas a Flare 1 Pñs. 1</t>
+  </si>
+  <si>
+    <t>GNS a
+ENEL</t>
+  </si>
+  <si>
+    <t>Consumo Propio
+UNNA ENERGIA</t>
+  </si>
+  <si>
+    <t>GNS Vendido a ENEL</t>
+  </si>
+  <si>
+    <t>{{gnsMalacasVolumen}}</t>
+  </si>
+  <si>
+    <t>{{gnsMalacasPc}}</t>
+  </si>
+  <si>
+    <t>{{gnsMalacasEnergia}}</t>
+  </si>
+  <si>
+    <t>{{gnsRefineriaVolumen}}</t>
+  </si>
+  <si>
+    <t>{{gnsRefineriaPc}}</t>
+  </si>
+  <si>
+    <t>{{gnsRefineriaEnergia}}</t>
+  </si>
+  <si>
+    <t>{{gnsBalanceVolumen}}</t>
+  </si>
+  <si>
+    <t>{{gnsBalancePc}}</t>
+  </si>
+  <si>
+    <t>{{gnsBalanceEnergia}}</t>
+  </si>
+  <si>
+    <t>{{gnsHumendadVolumen}}</t>
+  </si>
+  <si>
+    <t>{{gnsHumendadPc}}</t>
+  </si>
+  <si>
+    <t>{{gnsHumendadEnergia}}</t>
+  </si>
+  <si>
+    <t>{{gnsGasFlareVolumen}}</t>
+  </si>
+  <si>
+    <t>{{gnsGasFlarePc}}</t>
+  </si>
+  <si>
+    <t>{{gnsGasFlareEnergia}}</t>
+  </si>
+  <si>
+    <t>{{gnsGasTotalVolumen}}</t>
+  </si>
+  <si>
+    <t>{{gnsGasTotalPc}}</t>
+  </si>
+  <si>
+    <t>{{gnsGasTotalEnergia}}</t>
+  </si>
+  <si>
+    <t>{{ConsumoPropioGnsVolumen}}</t>
+  </si>
+  <si>
+    <t>{{ConsumoPropioGnsPc}}</t>
+  </si>
+  <si>
+    <t>{{ConsumoPropioGnsEnergia}}</t>
+  </si>
+  <si>
+    <t>{{ConsumoPropioTotalVolumen}}</t>
+  </si>
+  <si>
+    <t>{{ConsumoPropioTotalPc}}</t>
+  </si>
+  <si>
+    <t>{{ConsumoPropioTotalEnergia}}</t>
   </si>
 </sst>
 </file>
@@ -537,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -723,51 +869,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -833,6 +940,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
@@ -840,7 +995,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="150">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -887,16 +1042,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -971,15 +1126,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="19" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1022,13 +1168,10 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1095,34 +1238,108 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1188,80 +1405,38 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -30351,7 +30526,7 @@
   <dimension ref="B1:O50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30374,100 +30549,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="96"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="102" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="126" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="128"/>
+    </row>
+    <row r="2" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="104" t="s">
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="131"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="134"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="106"/>
-    </row>
-    <row r="2" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="99"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="107" t="s">
+      <c r="M4" s="135"/>
+      <c r="N4" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="109"/>
-    </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="110" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112"/>
-    </row>
-    <row r="4" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="99"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="107" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="113"/>
-      <c r="N4" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="109"/>
+      <c r="O4" s="131"/>
     </row>
     <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="114" t="s">
-        <v>5</v>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="136" t="s">
+        <v>69</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="114" t="s">
-        <v>6</v>
+      <c r="M5" s="137"/>
+      <c r="N5" s="136" t="s">
+        <v>70</v>
       </c>
-      <c r="O5" s="116"/>
+      <c r="O5" s="138"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
@@ -30490,7 +30665,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -30511,7 +30686,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
@@ -30537,22 +30712,22 @@
       <c r="N9" s="6"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="2:15" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="65"/>
+    <row r="10" spans="2:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="61"/>
       <c r="C10" s="20"/>
       <c r="H10" s="21"/>
       <c r="I10" s="23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
-      <c r="J10" s="71" t="s">
-        <v>56</v>
+      <c r="J10" s="67" t="s">
+        <v>50</v>
       </c>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
-      <c r="O10" s="66"/>
+      <c r="O10" s="62"/>
     </row>
-    <row r="11" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="65"/>
+    <row r="11" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="61"/>
       <c r="C11" s="22"/>
       <c r="D11" s="20"/>
       <c r="F11" s="20"/>
@@ -30564,10 +30739,10 @@
       <c r="L11" s="20"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
-      <c r="O11" s="66"/>
+      <c r="O11" s="62"/>
     </row>
-    <row r="12" spans="2:15" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="65"/>
+    <row r="12" spans="2:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="61"/>
       <c r="C12" s="25"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30576,12 +30751,12 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
-      <c r="O12" s="66"/>
+      <c r="O12" s="62"/>
     </row>
-    <row r="13" spans="2:15" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
+    <row r="13" spans="2:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="61"/>
       <c r="C13" s="26"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30589,113 +30764,131 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="O13" s="66"/>
+      <c r="O13" s="62"/>
     </row>
-    <row r="14" spans="2:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="B14" s="65"/>
+    <row r="14" spans="2:15" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B14" s="61"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="106" t="s">
         <v>11</v>
-      </c>
-      <c r="E14" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="118" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="118" t="s">
-        <v>15</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="27"/>
-      <c r="K14" s="120" t="s">
-        <v>16</v>
+      <c r="K14" s="87" t="s">
+        <v>12</v>
       </c>
-      <c r="L14" s="120" t="s">
-        <v>17</v>
+      <c r="L14" s="87" t="s">
+        <v>13</v>
       </c>
-      <c r="O14" s="66"/>
+      <c r="O14" s="62"/>
     </row>
-    <row r="15" spans="2:15" s="53" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="65"/>
+    <row r="15" spans="2:15" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="61"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="54"/>
-      <c r="O15" s="66"/>
+      <c r="J15" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="51"/>
+      <c r="O15" s="62"/>
     </row>
-    <row r="16" spans="2:15" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="65"/>
-      <c r="C16" s="121" t="s">
-        <v>18</v>
+    <row r="16" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="61"/>
+      <c r="C16" s="107" t="s">
+        <v>14</v>
       </c>
-      <c r="D16" s="123" t="s">
+      <c r="D16" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="143" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="145" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="143" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="126" t="s">
-        <v>42</v>
+      <c r="I16" s="20"/>
+      <c r="J16" s="89" t="s">
+        <v>53</v>
       </c>
-      <c r="F16" s="128" t="s">
-        <v>43</v>
+      <c r="K16" s="90" t="s">
+        <v>57</v>
       </c>
-      <c r="G16" s="126" t="s">
-        <v>44</v>
+      <c r="L16" s="90" t="s">
+        <v>58</v>
       </c>
-      <c r="H16" s="130" t="s">
-        <v>45</v>
+      <c r="M16" s="52"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="62"/>
+    </row>
+    <row r="17" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="61"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="89" t="s">
+        <v>54</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="66"/>
+      <c r="K17" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="52"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="62"/>
     </row>
-    <row r="17" spans="2:15" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="65"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="66"/>
+    <row r="18" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="61"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="62"/>
     </row>
-    <row r="18" spans="2:15" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="65"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="66"/>
-    </row>
-    <row r="19" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="65"/>
+    <row r="19" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B19" s="61"/>
       <c r="C19" s="29"/>
       <c r="D19" s="30"/>
       <c r="E19" s="31"/>
@@ -30704,20 +30897,20 @@
       <c r="H19" s="33"/>
       <c r="I19" s="20"/>
       <c r="J19" s="34" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
-      <c r="M19" s="56"/>
-      <c r="O19" s="66"/>
+      <c r="M19" s="53"/>
+      <c r="O19" s="62"/>
     </row>
-    <row r="20" spans="2:15" s="53" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="65"/>
+    <row r="20" spans="2:15" s="50" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="61"/>
       <c r="C20" s="35"/>
       <c r="I20" s="36"/>
-      <c r="M20" s="56"/>
-      <c r="O20" s="66"/>
+      <c r="M20" s="53"/>
+      <c r="O20" s="62"/>
     </row>
-    <row r="21" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="65"/>
+    <row r="21" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B21" s="61"/>
       <c r="C21" s="37"/>
       <c r="D21" s="22"/>
       <c r="E21" s="38"/>
@@ -30725,478 +30918,528 @@
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="134" t="s">
-        <v>20</v>
+      <c r="J21" s="91" t="s">
+        <v>16</v>
       </c>
-      <c r="K21" s="135" t="s">
-        <v>46</v>
+      <c r="K21" s="92" t="s">
+        <v>42</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="58"/>
-      <c r="O21" s="66"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55"/>
+      <c r="O21" s="62"/>
     </row>
-    <row r="22" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="65"/>
+    <row r="22" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="61"/>
       <c r="C22" s="39"/>
-      <c r="F22" s="53" t="s">
-        <v>21</v>
+      <c r="F22" s="50" t="s">
+        <v>17</v>
       </c>
-      <c r="J22" s="134" t="s">
-        <v>22</v>
+      <c r="J22" s="91" t="s">
+        <v>18</v>
       </c>
-      <c r="K22" s="136"/>
-      <c r="L22" s="56"/>
-      <c r="O22" s="66"/>
+      <c r="K22" s="149" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="53"/>
+      <c r="O22" s="62"/>
     </row>
-    <row r="23" spans="2:15" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="65"/>
-      <c r="D23" s="58"/>
-      <c r="O23" s="66"/>
+    <row r="23" spans="2:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="61"/>
+      <c r="D23" s="55"/>
+      <c r="O23" s="62"/>
     </row>
-    <row r="24" spans="2:15" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="65"/>
+    <row r="24" spans="2:15" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="61"/>
       <c r="D24" s="20"/>
       <c r="F24" s="40"/>
       <c r="G24" s="20"/>
-      <c r="J24" s="87" t="s">
-        <v>23</v>
+      <c r="J24" s="83" t="s">
+        <v>19</v>
       </c>
-      <c r="K24" s="137" t="s">
-        <v>47</v>
+      <c r="K24" s="93" t="s">
+        <v>43</v>
       </c>
-      <c r="L24" s="87" t="s">
-        <v>24</v>
+      <c r="L24" s="83" t="s">
+        <v>20</v>
       </c>
-      <c r="O24" s="66"/>
+      <c r="O24" s="62"/>
     </row>
-    <row r="25" spans="2:15" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="65"/>
+    <row r="25" spans="2:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="61"/>
       <c r="E25" s="40"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="62"/>
+    </row>
+    <row r="26" spans="2:15" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="B26" s="61"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="O26" s="62"/>
+    </row>
+    <row r="27" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B27" s="61"/>
+      <c r="C27" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="66"/>
-    </row>
-    <row r="26" spans="2:15" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="B26" s="65"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="86" t="s">
+      <c r="K27" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="90" t="s">
+      <c r="L27" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="91" t="s">
+      <c r="M27" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="O26" s="66"/>
+      <c r="O27" s="62"/>
     </row>
-    <row r="27" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="65"/>
-      <c r="C27" s="86" t="s">
-        <v>57</v>
+    <row r="28" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="61"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="103" t="s">
+        <v>80</v>
       </c>
-      <c r="D27" s="87" t="s">
-        <v>58</v>
+      <c r="E28" s="84" t="s">
+        <v>90</v>
       </c>
-      <c r="E27" s="88" t="s">
-        <v>59</v>
+      <c r="F28" s="85" t="s">
+        <v>91</v>
       </c>
-      <c r="F27" s="89" t="s">
-        <v>60</v>
+      <c r="G28" s="84" t="s">
+        <v>92</v>
       </c>
-      <c r="G27" s="88" t="s">
-        <v>61</v>
+      <c r="H28" s="55"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="O28" s="62"/>
+    </row>
+    <row r="29" spans="2:15" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="61"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="103" t="s">
+        <v>81</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="E29" s="147" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="148" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="56"/>
+      <c r="J29" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="118" t="s">
+      <c r="K29" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="88"/>
+      <c r="M29" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" s="63"/>
+    </row>
+    <row r="30" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="61"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" s="75"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="76"/>
+      <c r="O30" s="62"/>
+    </row>
+    <row r="31" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B31" s="61"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="118" t="s">
+      <c r="K31" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="88"/>
+      <c r="M31" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="62"/>
+    </row>
+    <row r="32" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="61"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" s="75"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="79"/>
+      <c r="O32" s="62"/>
+    </row>
+    <row r="33" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="61"/>
+      <c r="J33" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="118" t="s">
+      <c r="K33" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="88"/>
+      <c r="M33" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="O33" s="62"/>
+    </row>
+    <row r="34" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="61"/>
+      <c r="C34" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="43"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="81"/>
+      <c r="O34" s="62"/>
+    </row>
+    <row r="35" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35" s="61"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="66"/>
-    </row>
-    <row r="28" spans="2:15" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="65"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="58"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="O28" s="66"/>
-    </row>
-    <row r="29" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="65"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="59"/>
-      <c r="J29" s="134" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="138" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="125"/>
-      <c r="M29" s="139" t="s">
+      <c r="K35" s="96"/>
+      <c r="L35" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="O29" s="67"/>
+      <c r="M35" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="N35" s="44"/>
+      <c r="O35" s="62"/>
     </row>
-    <row r="30" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="65"/>
-      <c r="C30" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="79"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="80"/>
-      <c r="O30" s="66"/>
-    </row>
-    <row r="31" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="65"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="88"/>
-      <c r="J31" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" s="138" t="s">
-        <v>49</v>
-      </c>
-      <c r="L31" s="125"/>
-      <c r="M31" s="138"/>
-      <c r="O31" s="66"/>
-    </row>
-    <row r="32" spans="2:15" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="65"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="74"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="83"/>
-      <c r="O32" s="66"/>
-    </row>
-    <row r="33" spans="2:15" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="65"/>
-      <c r="C33" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="125"/>
-      <c r="M33" s="138"/>
-      <c r="O33" s="66"/>
-    </row>
-    <row r="34" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B34" s="65"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="88"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="85"/>
-      <c r="O34" s="66"/>
-    </row>
-    <row r="35" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="65"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="134" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" s="140"/>
-      <c r="L35" s="138" t="s">
-        <v>51</v>
-      </c>
-      <c r="M35" s="141"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="66"/>
-    </row>
-    <row r="36" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="65"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+    <row r="36" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="61"/>
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
       <c r="J36" s="43"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="66"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="62"/>
     </row>
-    <row r="37" spans="2:15" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="68"/>
-      <c r="C37" s="48" t="s">
-        <v>39</v>
+    <row r="37" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B37" s="64"/>
+      <c r="C37" s="107" t="s">
+        <v>86</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
+      <c r="D37" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="84" t="s">
+        <v>75</v>
+      </c>
       <c r="H37" s="43"/>
       <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
+      <c r="J37" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" s="109"/>
+      <c r="M37" s="110"/>
       <c r="N37" s="43"/>
-      <c r="O37" s="66"/>
+      <c r="O37" s="62"/>
     </row>
-    <row r="38" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B38" s="68"/>
-      <c r="C38" s="94" t="s">
-        <v>54</v>
+    <row r="38" spans="2:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="64"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="102" t="s">
+        <v>72</v>
       </c>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="66"/>
+      <c r="E38" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="109"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="62"/>
     </row>
-    <row r="39" spans="2:15" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="68"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="43"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="66"/>
+    <row r="39" spans="2:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="64"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="62"/>
     </row>
-    <row r="40" spans="2:15" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="68"/>
+    <row r="40" spans="2:15" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="64"/>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
-      <c r="H40" s="49"/>
+      <c r="H40" s="46"/>
       <c r="I40" s="43"/>
       <c r="J40" s="21"/>
       <c r="K40" s="41"/>
       <c r="L40" s="41"/>
       <c r="M40" s="41"/>
       <c r="N40" s="43"/>
-      <c r="O40" s="66"/>
+      <c r="O40" s="62"/>
     </row>
-    <row r="41" spans="2:15" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="68"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="49"/>
+    <row r="41" spans="2:15" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="64"/>
+      <c r="C41" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="46"/>
       <c r="I41" s="43"/>
       <c r="N41" s="43"/>
-      <c r="O41" s="66"/>
+      <c r="O41" s="62"/>
     </row>
-    <row r="42" spans="2:15" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="68"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
+    <row r="42" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="64"/>
+      <c r="C42" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
       <c r="N42" s="43"/>
-      <c r="O42" s="69"/>
+      <c r="O42" s="65"/>
     </row>
-    <row r="43" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B43" s="68"/>
+    <row r="43" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B43" s="64"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
       <c r="N43" s="43"/>
-      <c r="O43" s="69"/>
+      <c r="O43" s="65"/>
     </row>
-    <row r="44" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B44" s="68"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
+    <row r="44" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B44" s="64"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
       <c r="J44" s="21"/>
       <c r="K44" s="42"/>
       <c r="L44" s="42"/>
       <c r="M44" s="42"/>
       <c r="N44" s="43"/>
-      <c r="O44" s="69"/>
+      <c r="O44" s="65"/>
     </row>
-    <row r="45" spans="2:15" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B45" s="68"/>
-      <c r="C45" s="52"/>
+    <row r="45" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B45" s="64"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="43"/>
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
       <c r="I45" s="43"/>
-      <c r="N45" s="70"/>
-      <c r="O45" s="69"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="65"/>
     </row>
-    <row r="46" spans="2:15" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="68"/>
-      <c r="C46" s="52"/>
+    <row r="46" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B46" s="64"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="43"/>
       <c r="G46" s="43"/>
       <c r="H46" s="43"/>
       <c r="I46" s="43"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="69"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="65"/>
     </row>
-    <row r="47" spans="2:15" s="53" customFormat="1" ht="76.349999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="68"/>
-      <c r="C47" s="50"/>
+    <row r="47" spans="2:15" s="50" customFormat="1" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="64"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
-      <c r="J47" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="N47" s="70"/>
-      <c r="O47" s="69"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="65"/>
     </row>
-    <row r="48" spans="2:15" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="65"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="63"/>
+    <row r="48" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B48" s="61"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="N48" s="70"/>
-      <c r="O48" s="69"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="65"/>
     </row>
     <row r="49" spans="2:15" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="15"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="93" t="s">
-        <v>40</v>
+      <c r="I49" s="113" t="s">
+        <v>36</v>
       </c>
-      <c r="L49" s="93"/>
-      <c r="M49" s="93"/>
-      <c r="N49" s="93"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
       <c r="O49" s="13"/>
     </row>
     <row r="50" spans="2:15" ht="15" x14ac:dyDescent="0.2">
@@ -31216,7 +31459,7 @@
       <c r="O50" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="33">
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
@@ -31239,12 +31482,17 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="J26:M26"/>
     <mergeCell ref="D49:F49"/>
-    <mergeCell ref="K49:N49"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
-    <mergeCell ref="C38:M38"/>
-    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BD77E3-681F-4BC1-8286-3479795CE181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21DB4B4-776F-473D-AD89-2B04724EA6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="445" xr2:uid="{9E40B278-673A-417E-9A41-08ACE2830EAA}"/>
   </bookViews>
@@ -106,14 +106,14 @@
     <definedName name="_TTA1">#REF!</definedName>
     <definedName name="_TTD2">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Boleta ENEL'!$B$1:$O$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Boleta ENEL'!$A$1:$N$50</definedName>
     <definedName name="_xlnm.Database">'[4]TABLA TRINITY'!#REF!</definedName>
     <definedName name="BBB">#REF!</definedName>
     <definedName name="CCC">#REF!</definedName>
     <definedName name="CO">[5]corcerviz!$A$8:$T$38</definedName>
     <definedName name="CONCERDIESEL">#REF!</definedName>
-    <definedName name="ConsumoPropio_Items">'Boleta ENEL'!$C$30:$G$31</definedName>
-    <definedName name="ConsumoPropioGnsVendioEnel_Items">'Boleta ENEL'!$C$37:$G$38</definedName>
+    <definedName name="ConsumoPropio_Items">'Boleta ENEL'!$B$30:$F$31</definedName>
+    <definedName name="ConsumoPropioGnsVendioEnel_Items">'Boleta ENEL'!$B$37:$F$38</definedName>
     <definedName name="CORD2">#REF!</definedName>
     <definedName name="DDD">#REF!</definedName>
     <definedName name="DDDD">#REF!</definedName>
@@ -121,11 +121,11 @@
     <definedName name="DIARIO">#REF!</definedName>
     <definedName name="Firmas">INDEX('[6]DATOS CORREOS'!$L$2:$L$9,MATCH([7]Datos!$U$2,'[6]DATOS CORREOS'!$K$2:$K$9,0))</definedName>
     <definedName name="GGG">#REF!</definedName>
-    <definedName name="GnsAEnel_Items">'Boleta ENEL'!$C$27:$G$28</definedName>
+    <definedName name="GnsAEnel_Items">'Boleta ENEL'!$B$27:$F$28</definedName>
     <definedName name="HORARIO">#REF!</definedName>
     <definedName name="HORAS">#REF!</definedName>
     <definedName name="INVROMT">#REF!</definedName>
-    <definedName name="LiquidosBarriles_Items">'Boleta ENEL'!$J$15:$L$16</definedName>
+    <definedName name="LiquidosBarriles_Items">'Boleta ENEL'!$I$15:$K$16</definedName>
     <definedName name="MAR">#REF!</definedName>
     <definedName name="MARCIANITO">#REF!</definedName>
     <definedName name="MARCIANITO20">#REF!</definedName>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="112">
   <si>
     <t>Versión / Fecha</t>
   </si>
@@ -552,6 +552,9 @@
   <si>
     <t>{{ConsumoPropioTotalEnergia}}</t>
   </si>
+  <si>
+    <t>Representante UNNA ENERGIA S.A</t>
+  </si>
 </sst>
 </file>
 
@@ -683,42 +686,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -732,54 +704,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -791,80 +717,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -881,17 +736,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -988,6 +832,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
@@ -995,21 +870,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="141">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1021,7 +890,7 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1033,7 +902,7 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1042,16 +911,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1120,9 +986,6 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1137,9 +1000,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1171,25 +1031,19 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1238,91 +1092,112 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="25" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1330,55 +1205,76 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1387,56 +1283,8 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1460,85 +1308,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1017814</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2506435" cy="280205"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F735BE-D542-49A8-847C-4D6A507CC38A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4103914" y="12006629"/>
-          <a:ext cx="2506435" cy="280205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200" b="0"/>
-            <a:t>Representante</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-PE" sz="1200" b="0" baseline="0"/>
-            <a:t>UNNA ENERGIA S.A</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-PE" sz="1200" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>134877</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>728789</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>89807</xdr:rowOff>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>856887</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>767241</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>151107</xdr:rowOff>
+      <xdr:rowOff>139742</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1566,8 +1347,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1668402" y="89807"/>
-          <a:ext cx="2274585" cy="842350"/>
+          <a:off x="784818" y="56030"/>
+          <a:ext cx="2279628" cy="845712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1582,6 +1363,56 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1243853</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC9060A-FA7A-468B-B89E-503F8FEBE8F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4325471" y="9312089"/>
+          <a:ext cx="1916206" cy="1138798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -30523,980 +30354,986 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="1.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="118"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="124" t="s">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="133"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="126" t="s">
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="128"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="139"/>
     </row>
-    <row r="2" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="121"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="129" t="s">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="131"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="118"/>
     </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="121"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="132" t="s">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="134"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
     </row>
-    <row r="4" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="121"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="129" t="s">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="133"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="135"/>
-      <c r="N4" s="129" t="s">
+      <c r="L4" s="123"/>
+      <c r="M4" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="131"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="100"/>
     </row>
-    <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="136" t="s">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="133"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="137"/>
-      <c r="N5" s="136" t="s">
+      <c r="L5" s="117"/>
+      <c r="M5" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="138"/>
+      <c r="N5" s="121"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="102"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="2:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
+    <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="100"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="9"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="2:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="100"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="10" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="100"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="9"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="2:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="61"/>
-      <c r="C10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="23" t="s">
+    <row r="10" spans="1:15" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="103"/>
+      <c r="B10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="67" t="s">
+      <c r="I10" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="62"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="56"/>
     </row>
-    <row r="11" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="61"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="62"/>
+    <row r="11" spans="1:15" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="103"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="56"/>
     </row>
-    <row r="12" spans="2:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="61"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="25" t="s">
+    <row r="12" spans="1:15" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="103"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="62"/>
+      <c r="N12" s="56"/>
     </row>
-    <row r="13" spans="2:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="61"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="O13" s="62"/>
+    <row r="13" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="103"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="N13" s="56"/>
     </row>
-    <row r="14" spans="2:15" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="B14" s="61"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="116" t="s">
+    <row r="14" spans="1:15" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="103"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="106" t="s">
+      <c r="D14" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="117" t="s">
+      <c r="E14" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="106" t="s">
+      <c r="F14" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="106" t="s">
+      <c r="G14" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="87" t="s">
+      <c r="H14" s="25"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="87" t="s">
+      <c r="K14" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="62"/>
+      <c r="N14" s="56"/>
     </row>
-    <row r="15" spans="2:15" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="61"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="89" t="s">
+    <row r="15" spans="1:15" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="103"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="90" t="s">
+      <c r="J15" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="90" t="s">
+      <c r="K15" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="51"/>
-      <c r="O15" s="62"/>
+      <c r="L15" s="46"/>
+      <c r="N15" s="56"/>
     </row>
-    <row r="16" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="61"/>
-      <c r="C16" s="107" t="s">
+    <row r="16" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="103"/>
+      <c r="B16" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="141" t="s">
+      <c r="C16" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="143" t="s">
+      <c r="D16" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="145" t="s">
+      <c r="E16" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="143" t="s">
+      <c r="F16" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="139" t="s">
+      <c r="G16" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="89" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="90" t="s">
+      <c r="J16" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="90" t="s">
+      <c r="K16" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="52"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="62"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="56"/>
     </row>
-    <row r="17" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="61"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="89" t="s">
+    <row r="17" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="103"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="90" t="s">
+      <c r="J17" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="90" t="s">
+      <c r="K17" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="62"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="56"/>
     </row>
-    <row r="18" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="103"/>
       <c r="B18" s="61"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="56"/>
     </row>
-    <row r="19" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="61"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="34" t="s">
+    <row r="19" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="103"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="53"/>
-      <c r="O19" s="62"/>
+      <c r="L19" s="48"/>
+      <c r="N19" s="56"/>
     </row>
-    <row r="20" spans="2:15" s="50" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="61"/>
-      <c r="C20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="M20" s="53"/>
-      <c r="O20" s="62"/>
+    <row r="20" spans="1:14" s="45" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="103"/>
+      <c r="B20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="L20" s="48"/>
+      <c r="N20" s="56"/>
     </row>
-    <row r="21" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="61"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="91" t="s">
+    <row r="21" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="103"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="92" t="s">
+      <c r="J21" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="54"/>
-      <c r="M21" s="55"/>
-      <c r="O21" s="62"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
+      <c r="N21" s="56"/>
     </row>
-    <row r="22" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="61"/>
-      <c r="C22" s="39"/>
-      <c r="F22" s="50" t="s">
+    <row r="22" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="103"/>
+      <c r="B22" s="36"/>
+      <c r="E22" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="91" t="s">
+      <c r="I22" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="149" t="s">
+      <c r="J22" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="53"/>
-      <c r="O22" s="62"/>
+      <c r="K22" s="48"/>
+      <c r="N22" s="56"/>
     </row>
-    <row r="23" spans="2:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="61"/>
-      <c r="D23" s="55"/>
-      <c r="O23" s="62"/>
+    <row r="23" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="103"/>
+      <c r="C23" s="50"/>
+      <c r="N23" s="56"/>
     </row>
-    <row r="24" spans="2:15" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="61"/>
-      <c r="D24" s="20"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="20"/>
-      <c r="J24" s="83" t="s">
+    <row r="24" spans="1:14" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="103"/>
+      <c r="C24" s="17"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="17"/>
+      <c r="I24" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="93" t="s">
+      <c r="J24" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="L24" s="83" t="s">
+      <c r="K24" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="62"/>
+      <c r="N24" s="56"/>
     </row>
-    <row r="25" spans="2:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="61"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="J25" s="50" t="s">
+    <row r="25" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="103"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="I25" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="O25" s="62"/>
+      <c r="N25" s="56"/>
     </row>
-    <row r="26" spans="2:15" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="B26" s="61"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="82" t="s">
+    <row r="26" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="103"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="82" t="s">
+      <c r="D26" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="86" t="s">
+      <c r="E26" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="82" t="s">
+      <c r="F26" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="104" t="s">
+      <c r="I26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="O26" s="62"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="N26" s="56"/>
     </row>
-    <row r="27" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="61"/>
-      <c r="C27" s="107" t="s">
+    <row r="27" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="103"/>
+      <c r="B27" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="C27" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="84" t="s">
+      <c r="D27" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="85" t="s">
+      <c r="E27" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="84" t="s">
+      <c r="F27" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="I27" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="106" t="s">
+      <c r="J27" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="L27" s="106" t="s">
+      <c r="K27" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="106" t="s">
+      <c r="L27" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="62"/>
+      <c r="N27" s="56"/>
     </row>
-    <row r="28" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="61"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="103" t="s">
+    <row r="28" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="103"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="84" t="s">
+      <c r="D28" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="85" t="s">
+      <c r="E28" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="F28" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="55"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="O28" s="62"/>
+      <c r="G28" s="50"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="N28" s="56"/>
     </row>
-    <row r="29" spans="2:15" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="61"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="103" t="s">
+    <row r="29" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="103"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="147" t="s">
+      <c r="D29" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="148" t="s">
+      <c r="E29" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="147" t="s">
+      <c r="F29" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="J29" s="91" t="s">
+      <c r="G29" s="51"/>
+      <c r="I29" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="K29" s="94" t="s">
+      <c r="J29" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="88"/>
-      <c r="M29" s="95" t="s">
+      <c r="K29" s="81"/>
+      <c r="L29" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="O29" s="63"/>
+      <c r="N29" s="57"/>
     </row>
-    <row r="30" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="61"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="83" t="s">
+    <row r="30" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="103"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="84" t="s">
+      <c r="D30" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="85" t="s">
+      <c r="E30" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="84" t="s">
+      <c r="F30" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="J30" s="75"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="76"/>
-      <c r="O30" s="62"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="69"/>
+      <c r="N30" s="56"/>
     </row>
-    <row r="31" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="61"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="103" t="s">
+    <row r="31" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="103"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="84" t="s">
+      <c r="D31" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="85" t="s">
+      <c r="E31" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="84" t="s">
+      <c r="F31" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="91" t="s">
+      <c r="I31" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="K31" s="94" t="s">
+      <c r="J31" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="88"/>
-      <c r="M31" s="94" t="s">
+      <c r="K31" s="81"/>
+      <c r="L31" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="O31" s="62"/>
+      <c r="N31" s="56"/>
     </row>
-    <row r="32" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="61"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="103" t="s">
+    <row r="32" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="103"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="84" t="s">
+      <c r="D32" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="85" t="s">
+      <c r="E32" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="84" t="s">
+      <c r="F32" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="J32" s="75"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="79"/>
-      <c r="O32" s="62"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="72"/>
+      <c r="N32" s="56"/>
     </row>
-    <row r="33" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="61"/>
-      <c r="J33" s="91" t="s">
+    <row r="33" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="103"/>
+      <c r="I33" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="94" t="s">
+      <c r="J33" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="88"/>
-      <c r="M33" s="94" t="s">
+      <c r="K33" s="81"/>
+      <c r="L33" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="O33" s="62"/>
+      <c r="N33" s="56"/>
     </row>
-    <row r="34" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B34" s="61"/>
-      <c r="C34" s="107" t="s">
+    <row r="34" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="103"/>
+      <c r="B34" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="C34" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="D34" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="85" t="s">
+      <c r="E34" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="F34" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="I34" s="43"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="81"/>
-      <c r="O34" s="62"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="74"/>
+      <c r="N34" s="56"/>
     </row>
-    <row r="35" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="61"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="102" t="s">
+    <row r="35" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="103"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="D35" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="85" t="s">
+      <c r="E35" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="F35" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="91" t="s">
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="96"/>
-      <c r="L35" s="94" t="s">
+      <c r="J35" s="89"/>
+      <c r="K35" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="M35" s="97" t="s">
+      <c r="L35" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="N35" s="44"/>
-      <c r="O35" s="62"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="56"/>
     </row>
-    <row r="36" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="61"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="62"/>
+    <row r="36" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="103"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="56"/>
     </row>
-    <row r="37" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="64"/>
-      <c r="C37" s="107" t="s">
+    <row r="37" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="103"/>
+      <c r="B37" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="C37" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="84" t="s">
+      <c r="D37" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="85" t="s">
+      <c r="E37" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="84" t="s">
+      <c r="F37" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="91" t="s">
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="K37" s="108" t="s">
+      <c r="J37" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="L37" s="109"/>
-      <c r="M37" s="110"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="62"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="56"/>
     </row>
-    <row r="38" spans="2:15" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="64"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="102" t="s">
+    <row r="38" spans="1:14" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="103"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="84" t="s">
+      <c r="D38" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="85" t="s">
+      <c r="E38" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="84" t="s">
+      <c r="F38" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="91" t="s">
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="K38" s="108" t="s">
+      <c r="J38" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="L38" s="109"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="62"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="56"/>
     </row>
-    <row r="39" spans="2:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="64"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="62"/>
+    <row r="39" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="103"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="56"/>
     </row>
-    <row r="40" spans="2:15" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="64"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="62"/>
+    <row r="40" spans="1:14" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="103"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="56"/>
     </row>
-    <row r="41" spans="2:15" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="64"/>
-      <c r="C41" s="112" t="s">
+    <row r="41" spans="1:14" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="103"/>
+      <c r="B41" s="112" t="s">
         <v>35</v>
       </c>
+      <c r="C41" s="112"/>
       <c r="D41" s="112"/>
       <c r="E41" s="112"/>
       <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="62"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="56"/>
     </row>
-    <row r="42" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="64"/>
-      <c r="C42" s="111" t="s">
+    <row r="42" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="103"/>
+      <c r="B42" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="65"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="140"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="58"/>
     </row>
-    <row r="43" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B43" s="64"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="65"/>
+    <row r="43" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="103"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="140"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="58"/>
     </row>
-    <row r="44" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B44" s="64"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="65"/>
+    <row r="44" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="103"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="140"/>
+      <c r="L44" s="140"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="58"/>
     </row>
-    <row r="45" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B45" s="64"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="65"/>
+    <row r="45" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="103"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="58"/>
     </row>
-    <row r="46" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B46" s="64"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="65"/>
+    <row r="46" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="103"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="58"/>
     </row>
-    <row r="47" spans="2:15" s="50" customFormat="1" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="64"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="65"/>
+    <row r="47" spans="1:14" s="45" customFormat="1" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="103"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="58"/>
     </row>
-    <row r="48" spans="2:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B48" s="61"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="101"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="65"/>
+    <row r="48" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="103"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="91"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="58"/>
     </row>
-    <row r="49" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="113" t="s">
+    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="100"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="113" t="s">
         <v>36</v>
       </c>
+      <c r="I49" s="113"/>
       <c r="J49" s="113"/>
-      <c r="K49" s="113"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="13"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="19"/>
+    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="104"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B42:L44"/>
+    <mergeCell ref="A1:C5"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D1:J5"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B1:D5"/>
-    <mergeCell ref="E1:K5"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="J27:J28"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21DB4B4-776F-473D-AD89-2B04724EA6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91066975-D84F-41B1-BC16-CF135BBF1683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="445" xr2:uid="{9E40B278-673A-417E-9A41-08ACE2830EAA}"/>
   </bookViews>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
   <si>
     <t>Versión / Fecha</t>
   </si>
@@ -564,7 +564,7 @@
     <numFmt numFmtId="164" formatCode="[$-280A]dddd\ d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -670,6 +670,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -870,7 +887,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="145">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1049,20 +1066,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,9 +1120,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1152,17 +1153,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1178,14 +1169,47 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1211,7 +1235,13 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,58 +1250,13 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,6 +1271,48 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,6 +1322,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1311,15 +1343,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>728789</xdr:colOff>
+      <xdr:colOff>281114</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:rowOff>65555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>767241</xdr:colOff>
+      <xdr:colOff>823830</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>139742</xdr:rowOff>
+      <xdr:rowOff>149267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1347,8 +1379,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="784818" y="56030"/>
-          <a:ext cx="2279628" cy="845712"/>
+          <a:off x="871664" y="65555"/>
+          <a:ext cx="2276266" cy="845712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1376,7 +1408,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
+      <xdr:colOff>168089</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>152681</xdr:rowOff>
     </xdr:to>
@@ -30356,14 +30388,14 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:L44"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
@@ -30379,106 +30411,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="133"/>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="136" t="s">
+      <c r="A1" s="131"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="137" t="s">
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="139"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129"/>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="133"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="116" t="s">
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="118"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="133"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="119" t="s">
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="121"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="126"/>
     </row>
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="122" t="s">
+      <c r="A4" s="131"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="123"/>
-      <c r="M4" s="117" t="s">
+      <c r="L4" s="121"/>
+      <c r="M4" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="118"/>
-      <c r="O4" s="100"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="133"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="117" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="117"/>
-      <c r="M5" s="119" t="s">
+      <c r="L5" s="122"/>
+      <c r="M5" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="121"/>
+      <c r="N5" s="126"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -30492,7 +30524,7 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="100"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
@@ -30510,7 +30542,7 @@
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="100"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
@@ -30528,7 +30560,7 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
@@ -30544,13 +30576,13 @@
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:15" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="103"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="17"/>
       <c r="G10" s="18"/>
       <c r="H10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="104" t="s">
         <v>50</v>
       </c>
       <c r="L10" s="21"/>
@@ -30558,7 +30590,7 @@
       <c r="N10" s="56"/>
     </row>
     <row r="11" spans="1:15" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="103"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
       <c r="E11" s="17"/>
@@ -30573,7 +30605,7 @@
       <c r="N11" s="56"/>
     </row>
     <row r="12" spans="1:15" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="103"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="22"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -30587,7 +30619,7 @@
       <c r="N12" s="56"/>
     </row>
     <row r="13" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="103"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="23"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -30598,82 +30630,82 @@
       <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:15" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="103"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="135" t="s">
+      <c r="E14" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="107" t="s">
+      <c r="F14" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="107" t="s">
+      <c r="G14" s="108" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="80" t="s">
+      <c r="J14" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="80" t="s">
+      <c r="K14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="N14" s="56"/>
     </row>
     <row r="15" spans="1:15" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="103"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="82" t="s">
+      <c r="I15" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="83" t="s">
+      <c r="J15" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="83" t="s">
+      <c r="K15" s="103" t="s">
         <v>56</v>
       </c>
       <c r="L15" s="46"/>
       <c r="N15" s="56"/>
     </row>
     <row r="16" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="103"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="129" t="s">
+      <c r="D16" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="131" t="s">
+      <c r="E16" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="125" t="s">
+      <c r="G16" s="139" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="17"/>
-      <c r="I16" s="82" t="s">
+      <c r="I16" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="83" t="s">
+      <c r="J16" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="83" t="s">
+      <c r="K16" s="103" t="s">
         <v>58</v>
       </c>
       <c r="L16" s="47"/>
@@ -30681,21 +30713,21 @@
       <c r="N16" s="56"/>
     </row>
     <row r="17" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="103"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="126"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="140"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="82" t="s">
+      <c r="I17" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="83" t="s">
+      <c r="J17" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="83" t="s">
+      <c r="K17" s="103" t="s">
         <v>60</v>
       </c>
       <c r="L17" s="47"/>
@@ -30703,23 +30735,33 @@
       <c r="N17" s="56"/>
     </row>
     <row r="18" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="103"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="65"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="102" t="s">
+        <v>41</v>
+      </c>
       <c r="H18" s="17"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="47"/>
       <c r="M18" s="37"/>
       <c r="N18" s="56"/>
     </row>
     <row r="19" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="103"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
@@ -30734,14 +30776,14 @@
       <c r="N19" s="56"/>
     </row>
     <row r="20" spans="1:14" s="45" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="103"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="32"/>
       <c r="H20" s="33"/>
       <c r="L20" s="48"/>
       <c r="N20" s="56"/>
     </row>
     <row r="21" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="34"/>
       <c r="C21" s="19"/>
       <c r="D21" s="35"/>
@@ -30749,10 +30791,10 @@
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
-      <c r="I21" s="84" t="s">
+      <c r="I21" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="85" t="s">
+      <c r="J21" s="79" t="s">
         <v>42</v>
       </c>
       <c r="K21" s="49"/>
@@ -30760,64 +30802,67 @@
       <c r="N21" s="56"/>
     </row>
     <row r="22" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="103"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="36"/>
       <c r="E22" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="84" t="s">
+      <c r="I22" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="99" t="s">
+      <c r="J22" s="107" t="s">
         <v>61</v>
       </c>
       <c r="K22" s="48"/>
       <c r="N22" s="56"/>
     </row>
     <row r="23" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="103"/>
+      <c r="A23" s="93"/>
       <c r="C23" s="50"/>
       <c r="N23" s="56"/>
     </row>
     <row r="24" spans="1:14" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="103"/>
+      <c r="A24" s="93"/>
       <c r="C24" s="17"/>
       <c r="E24" s="37"/>
       <c r="F24" s="17"/>
-      <c r="I24" s="76" t="s">
+      <c r="I24" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="86" t="s">
+      <c r="J24" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="76" t="s">
+      <c r="K24" s="71" t="s">
         <v>20</v>
       </c>
       <c r="N24" s="56"/>
     </row>
     <row r="25" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="103"/>
+      <c r="A25" s="93"/>
       <c r="D25" s="37"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="119" t="s">
         <v>21</v>
       </c>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
       <c r="N25" s="56"/>
     </row>
     <row r="26" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="103"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="75" t="s">
+      <c r="A26" s="93"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="79" t="s">
+      <c r="E26" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="75" t="s">
+      <c r="F26" s="70" t="s">
         <v>10</v>
       </c>
       <c r="I26" s="124" t="s">
@@ -30829,225 +30874,227 @@
       <c r="N26" s="56"/>
     </row>
     <row r="27" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="103"/>
-      <c r="B27" s="108" t="s">
+      <c r="A27" s="93"/>
+      <c r="B27" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="77" t="s">
+      <c r="F27" s="72" t="s">
         <v>89</v>
       </c>
       <c r="I27" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="107" t="s">
+      <c r="J27" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="107" t="s">
+      <c r="K27" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="107" t="s">
+      <c r="L27" s="108" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="56"/>
     </row>
     <row r="28" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="103"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="96" t="s">
+      <c r="A28" s="93"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="77" t="s">
+      <c r="F28" s="72" t="s">
         <v>92</v>
       </c>
       <c r="G28" s="50"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
       <c r="N28" s="56"/>
     </row>
     <row r="29" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="103"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="96" t="s">
+      <c r="A29" s="93"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="97" t="s">
+      <c r="D29" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="98" t="s">
+      <c r="E29" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="97" t="s">
+      <c r="F29" s="72" t="s">
         <v>95</v>
       </c>
       <c r="G29" s="51"/>
-      <c r="I29" s="84" t="s">
+      <c r="I29" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="87" t="s">
+      <c r="J29" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="81"/>
-      <c r="L29" s="88" t="s">
+      <c r="K29" s="76"/>
+      <c r="L29" s="82" t="s">
         <v>51</v>
       </c>
       <c r="N29" s="57"/>
     </row>
     <row r="30" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="103"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="76" t="s">
+      <c r="A30" s="93"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="77" t="s">
+      <c r="F30" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="69"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="64"/>
       <c r="N30" s="56"/>
     </row>
     <row r="31" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="103"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="96" t="s">
+      <c r="A31" s="93"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="77" t="s">
+      <c r="F31" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="84" t="s">
+      <c r="I31" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="87" t="s">
+      <c r="J31" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="81"/>
-      <c r="L31" s="87" t="s">
+      <c r="K31" s="76"/>
+      <c r="L31" s="81" t="s">
         <v>65</v>
       </c>
       <c r="N31" s="56"/>
     </row>
     <row r="32" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="103"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="96" t="s">
+      <c r="A32" s="93"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="77" t="s">
+      <c r="F32" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="I32" s="68"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="72"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="67"/>
       <c r="N32" s="56"/>
     </row>
     <row r="33" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="103"/>
-      <c r="I33" s="84" t="s">
+      <c r="A33" s="93"/>
+      <c r="B33" s="23"/>
+      <c r="I33" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="87" t="s">
+      <c r="J33" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="81"/>
-      <c r="L33" s="87" t="s">
+      <c r="K33" s="76"/>
+      <c r="L33" s="81" t="s">
         <v>64</v>
       </c>
       <c r="N33" s="56"/>
     </row>
     <row r="34" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="103"/>
-      <c r="B34" s="108" t="s">
+      <c r="A34" s="93"/>
+      <c r="B34" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="77" t="s">
+      <c r="D34" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="78" t="s">
+      <c r="E34" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="77" t="s">
+      <c r="F34" s="72" t="s">
         <v>107</v>
       </c>
       <c r="H34" s="39"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="74"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="69"/>
       <c r="N34" s="56"/>
     </row>
     <row r="35" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="103"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="95" t="s">
+      <c r="A35" s="93"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="77" t="s">
+      <c r="D35" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="78" t="s">
+      <c r="E35" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="77" t="s">
+      <c r="F35" s="95" t="s">
         <v>110</v>
       </c>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
-      <c r="I35" s="84" t="s">
+      <c r="I35" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="J35" s="89"/>
-      <c r="K35" s="87" t="s">
+      <c r="J35" s="83"/>
+      <c r="K35" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="L35" s="90" t="s">
+      <c r="L35" s="84" t="s">
         <v>63</v>
       </c>
       <c r="M35" s="40"/>
       <c r="N35" s="56"/>
     </row>
     <row r="36" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="103"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="23"/>
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
       <c r="I36" s="39"/>
@@ -31058,70 +31105,70 @@
       <c r="N36" s="56"/>
     </row>
     <row r="37" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="103"/>
-      <c r="B37" s="108" t="s">
+      <c r="A37" s="93"/>
+      <c r="B37" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="78" t="s">
+      <c r="E37" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="77" t="s">
+      <c r="F37" s="72" t="s">
         <v>75</v>
       </c>
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
-      <c r="I37" s="84" t="s">
+      <c r="I37" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="109" t="s">
+      <c r="J37" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="K37" s="110"/>
-      <c r="L37" s="111"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="114"/>
       <c r="M37" s="39"/>
       <c r="N37" s="56"/>
     </row>
     <row r="38" spans="1:14" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="103"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="95" t="s">
+      <c r="A38" s="93"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="78" t="s">
+      <c r="E38" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="77" t="s">
+      <c r="F38" s="95" t="s">
         <v>78</v>
       </c>
       <c r="G38" s="41"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="84" t="s">
+      <c r="I38" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="109" t="s">
+      <c r="J38" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="K38" s="110"/>
-      <c r="L38" s="111"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="114"/>
       <c r="M38" s="40"/>
       <c r="N38" s="56"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="103"/>
+      <c r="A39" s="93"/>
       <c r="M39" s="40"/>
       <c r="N39" s="56"/>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="103"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -31137,71 +31184,71 @@
       <c r="N40" s="56"/>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="103"/>
-      <c r="B41" s="112" t="s">
+      <c r="A41" s="93"/>
+      <c r="B41" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
       <c r="G41" s="42"/>
       <c r="H41" s="39"/>
       <c r="M41" s="39"/>
       <c r="N41" s="56"/>
     </row>
     <row r="42" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="103"/>
-      <c r="B42" s="140" t="s">
+      <c r="A42" s="93"/>
+      <c r="B42" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="140"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="130"/>
       <c r="M42" s="39"/>
       <c r="N42" s="58"/>
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="103"/>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="140"/>
-      <c r="L43" s="140"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130"/>
       <c r="M43" s="39"/>
       <c r="N43" s="58"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="103"/>
-      <c r="B44" s="140"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="140"/>
-      <c r="L44" s="140"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="130"/>
+      <c r="L44" s="130"/>
       <c r="M44" s="39"/>
       <c r="N44" s="58"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="103"/>
+      <c r="A45" s="93"/>
       <c r="B45" s="44"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
@@ -31213,7 +31260,7 @@
       <c r="N45" s="58"/>
     </row>
     <row r="46" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="103"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="44"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
@@ -31228,7 +31275,7 @@
       <c r="N46" s="58"/>
     </row>
     <row r="47" spans="1:14" s="45" customFormat="1" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="103"/>
+      <c r="A47" s="93"/>
       <c r="B47" s="43"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
@@ -31236,51 +31283,51 @@
       <c r="F47" s="39"/>
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="74"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="69"/>
       <c r="M47" s="59"/>
       <c r="N47" s="58"/>
     </row>
     <row r="48" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="103"/>
+      <c r="A48" s="93"/>
       <c r="B48" s="43"/>
       <c r="C48" s="54"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="55"/>
       <c r="G48" s="55"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="74"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="69"/>
       <c r="M48" s="59"/>
       <c r="N48" s="58"/>
     </row>
     <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="100"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="105" t="s">
+      <c r="C49" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="113" t="s">
+      <c r="H49" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="113"/>
-      <c r="J49" s="113"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
       <c r="N49" s="11"/>
     </row>
     <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="104"/>
+      <c r="A50" s="94"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -31296,7 +31343,7 @@
       <c r="N50" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="B42:L44"/>
     <mergeCell ref="A1:C5"/>
@@ -31307,7 +31354,6 @@
     <mergeCell ref="D1:J5"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
@@ -31319,6 +31365,7 @@
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="K27:K28"/>
@@ -31330,6 +31377,7 @@
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B37:B38"/>
+    <mergeCell ref="I25:L25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91066975-D84F-41B1-BC16-CF135BBF1683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0006DD-DCA2-4C40-A212-401C22ECE3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="445" xr2:uid="{9E40B278-673A-417E-9A41-08ACE2830EAA}"/>
   </bookViews>
@@ -1202,8 +1202,83 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1237,81 +1312,6 @@
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -30388,8 +30388,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30411,101 +30411,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="131"/>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="134" t="s">
+      <c r="A1" s="112"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="127" t="s">
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="110"/>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="143" t="s">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="127"/>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="131"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="125" t="s">
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="126"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="130"/>
     </row>
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="120" t="s">
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="121"/>
-      <c r="M4" s="122" t="s">
+      <c r="L4" s="132"/>
+      <c r="M4" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="123"/>
+      <c r="N4" s="127"/>
       <c r="O4" s="90"/>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="131"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="122" t="s">
+      <c r="A5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="122"/>
-      <c r="M5" s="125" t="s">
+      <c r="L5" s="126"/>
+      <c r="M5" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="126"/>
+      <c r="N5" s="130"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="92"/>
@@ -30632,19 +30632,19 @@
     <row r="14" spans="1:15" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="93"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="133" t="s">
+      <c r="E14" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="114" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="25"/>
@@ -30660,11 +30660,11 @@
     <row r="15" spans="1:15" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="93"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
       <c r="H15" s="17"/>
       <c r="I15" s="77" t="s">
         <v>52</v>
@@ -30680,22 +30680,22 @@
     </row>
     <row r="16" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="93"/>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="137" t="s">
+      <c r="D16" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="139" t="s">
+      <c r="E16" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="141" t="s">
+      <c r="F16" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="139" t="s">
+      <c r="G16" s="117" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="17"/>
@@ -30714,12 +30714,12 @@
     </row>
     <row r="17" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="93"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="140"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="118"/>
       <c r="H17" s="17"/>
       <c r="I17" s="77" t="s">
         <v>54</v>
@@ -30736,7 +30736,7 @@
     </row>
     <row r="18" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="93"/>
-      <c r="B18" s="108"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="99" t="s">
         <v>72</v>
       </c>
@@ -30842,12 +30842,12 @@
       <c r="D25" s="37"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
-      <c r="I25" s="119" t="s">
+      <c r="I25" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
       <c r="N25" s="56"/>
     </row>
     <row r="26" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -30865,17 +30865,17 @@
       <c r="F26" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="124" t="s">
+      <c r="I26" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
       <c r="N26" s="56"/>
     </row>
     <row r="27" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="93"/>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="136" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="71" t="s">
@@ -30893,20 +30893,20 @@
       <c r="I27" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="108" t="s">
+      <c r="J27" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="108" t="s">
+      <c r="K27" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="108" t="s">
+      <c r="L27" s="114" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="56"/>
     </row>
     <row r="28" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="93"/>
-      <c r="B28" s="117"/>
+      <c r="B28" s="142"/>
       <c r="C28" s="89" t="s">
         <v>80</v>
       </c>
@@ -30921,14 +30921,14 @@
       </c>
       <c r="G28" s="50"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
       <c r="N28" s="56"/>
     </row>
     <row r="29" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="93"/>
-      <c r="B29" s="117"/>
+      <c r="B29" s="142"/>
       <c r="C29" s="89" t="s">
         <v>81</v>
       </c>
@@ -30956,7 +30956,7 @@
     </row>
     <row r="30" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="93"/>
-      <c r="B30" s="117"/>
+      <c r="B30" s="142"/>
       <c r="C30" s="71" t="s">
         <v>82</v>
       </c>
@@ -30977,7 +30977,7 @@
     </row>
     <row r="31" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="93"/>
-      <c r="B31" s="117"/>
+      <c r="B31" s="142"/>
       <c r="C31" s="89" t="s">
         <v>83</v>
       </c>
@@ -31004,7 +31004,7 @@
     </row>
     <row r="32" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="93"/>
-      <c r="B32" s="118"/>
+      <c r="B32" s="143"/>
       <c r="C32" s="97" t="s">
         <v>72</v>
       </c>
@@ -31040,7 +31040,7 @@
     </row>
     <row r="34" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="93"/>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="136" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="71" t="s">
@@ -31064,7 +31064,7 @@
     </row>
     <row r="35" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="93"/>
-      <c r="B35" s="118"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="98" t="s">
         <v>72</v>
       </c>
@@ -31106,7 +31106,7 @@
     </row>
     <row r="37" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="93"/>
-      <c r="B37" s="111" t="s">
+      <c r="B37" s="136" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="71" t="s">
@@ -31126,17 +31126,17 @@
       <c r="I37" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="112" t="s">
+      <c r="J37" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="K37" s="113"/>
-      <c r="L37" s="114"/>
+      <c r="K37" s="138"/>
+      <c r="L37" s="139"/>
       <c r="M37" s="39"/>
       <c r="N37" s="56"/>
     </row>
     <row r="38" spans="1:14" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="93"/>
-      <c r="B38" s="118"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="98" t="s">
         <v>72</v>
       </c>
@@ -31154,11 +31154,11 @@
       <c r="I38" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="112" t="s">
+      <c r="J38" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="K38" s="113"/>
-      <c r="L38" s="114"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="139"/>
       <c r="M38" s="40"/>
       <c r="N38" s="56"/>
     </row>
@@ -31169,11 +31169,13 @@
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="93"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
+      <c r="B40" s="140" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="140"/>
       <c r="G40" s="42"/>
       <c r="H40" s="39"/>
       <c r="I40" s="18"/>
@@ -31185,77 +31187,83 @@
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="93"/>
-      <c r="B41" s="115" t="s">
-        <v>35</v>
+      <c r="B41" s="111" t="s">
+        <v>49</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="39"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="111"/>
       <c r="M41" s="39"/>
       <c r="N41" s="56"/>
     </row>
     <row r="42" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="93"/>
-      <c r="B42" s="130" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="130"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
       <c r="M42" s="39"/>
       <c r="N42" s="58"/>
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="93"/>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="130"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="130"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
       <c r="M43" s="39"/>
       <c r="N43" s="58"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="93"/>
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="130"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
       <c r="M44" s="39"/>
       <c r="N44" s="58"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="93"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
       <c r="M45" s="59"/>
       <c r="N45" s="58"/>
     </row>
@@ -31309,18 +31317,18 @@
     <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="90"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="109" t="s">
+      <c r="C49" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="135"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="116" t="s">
+      <c r="H49" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="116"/>
-      <c r="J49" s="116"/>
+      <c r="I49" s="141"/>
+      <c r="J49" s="141"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
@@ -31344,8 +31352,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="B41:L45"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B42:L44"/>
     <mergeCell ref="A1:C5"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
@@ -31360,24 +31386,6 @@
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="I25:L25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27820"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollos\SP\APSS SP\ProyectoPrincipalAenza7\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0006DD-DCA2-4C40-A212-401C22ECE3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6CA5E1-9C5D-42A8-8BC6-E622FB151837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="445" xr2:uid="{9E40B278-673A-417E-9A41-08ACE2830EAA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="445" xr2:uid="{9E40B278-673A-417E-9A41-08ACE2830EAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Boleta ENEL" sheetId="1" r:id="rId1"/>
@@ -560,9 +560,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-280A]dddd\ d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -887,7 +888,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="138">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -937,348 +938,248 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1286,32 +1187,113 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1453,7 +1435,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="BOL"/>
@@ -1494,7 +1476,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="MOLLENDO DIARIO"/>
@@ -1511,7 +1493,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Correción 4606B"/>
@@ -1586,7 +1568,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ROMT"/>
@@ -22466,7 +22448,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABLAS"/>
@@ -23075,7 +23057,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="..."/>
@@ -23172,7 +23154,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="XXXXXXX"/>
@@ -28255,7 +28237,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="..."/>
@@ -28415,7 +28397,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Datos"/>
@@ -28440,7 +28422,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FECHA"/>
@@ -28726,7 +28708,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="COMPRAS DE GAS"/>
@@ -30388,129 +30370,129 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="30" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.5546875" style="1"/>
+    <col min="10" max="10" width="10.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.36328125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="112"/>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="116" t="s">
+    <row r="1" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="122"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="108" t="s">
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="110"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="121"/>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="125" t="s">
+    <row r="2" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="122"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="127"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="115"/>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="128" t="s">
+    <row r="3" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="130"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="118"/>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="131" t="s">
+    <row r="4" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="122"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="132"/>
-      <c r="M4" s="126" t="s">
+      <c r="L4" s="113"/>
+      <c r="M4" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="127"/>
-      <c r="O4" s="90"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="84"/>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="126" t="s">
+    <row r="5" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="122"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="126"/>
-      <c r="M5" s="128" t="s">
+      <c r="L5" s="114"/>
+      <c r="M5" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="130"/>
+      <c r="N5" s="118"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="92"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="85"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -30523,8 +30505,8 @@
       <c r="M6" s="2"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="90"/>
+    <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
@@ -30541,8 +30523,8 @@
       <c r="M7" s="4"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="90"/>
+    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="84"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
@@ -30559,8 +30541,8 @@
       <c r="M8" s="4"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+    <row r="9" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="84"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
@@ -30575,22 +30557,22 @@
       <c r="M9" s="4"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:15" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="93"/>
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="84"/>
       <c r="B10" s="17"/>
       <c r="G10" s="18"/>
       <c r="H10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="104" t="s">
+      <c r="I10" s="95" t="s">
         <v>50</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="56"/>
+      <c r="N10" s="55"/>
     </row>
-    <row r="11" spans="1:15" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="93"/>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="84"/>
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
       <c r="E11" s="17"/>
@@ -30602,10 +30584,10 @@
       <c r="K11" s="17"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="56"/>
+      <c r="N11" s="55"/>
     </row>
-    <row r="12" spans="1:15" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="93"/>
+    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="84"/>
       <c r="B12" s="22"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -30616,10 +30598,10 @@
       <c r="I12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N12" s="56"/>
+      <c r="N12" s="55"/>
     </row>
-    <row r="13" spans="1:15" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="93"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="84"/>
       <c r="B13" s="23"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -30627,141 +30609,141 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="N13" s="56"/>
+      <c r="N13" s="55"/>
     </row>
-    <row r="14" spans="1:15" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="93"/>
+    <row r="14" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="84"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="115" t="s">
+      <c r="E14" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="114" t="s">
+      <c r="G14" s="99" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="75" t="s">
+      <c r="J14" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="75" t="s">
+      <c r="K14" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="56"/>
+      <c r="N14" s="55"/>
     </row>
-    <row r="15" spans="1:15" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
+    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="84"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="103" t="s">
+      <c r="J15" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="103" t="s">
+      <c r="K15" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="46"/>
-      <c r="N15" s="56"/>
+      <c r="L15" s="45"/>
+      <c r="N15" s="55"/>
     </row>
-    <row r="16" spans="1:15" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="93"/>
-      <c r="B16" s="114" t="s">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="84"/>
+      <c r="B16" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="121" t="s">
+      <c r="D16" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="117" t="s">
+      <c r="E16" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="117" t="s">
+      <c r="G16" s="136" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="17"/>
-      <c r="I16" s="77" t="s">
+      <c r="I16" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="103" t="s">
+      <c r="J16" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="103" t="s">
+      <c r="K16" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="47"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="37"/>
-      <c r="N16" s="56"/>
+      <c r="N16" s="55"/>
     </row>
-    <row r="17" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="93"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="118"/>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="84"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="137"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="77" t="s">
+      <c r="I17" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="103" t="s">
+      <c r="J17" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="103" t="s">
+      <c r="K17" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="47"/>
+      <c r="L17" s="46"/>
       <c r="M17" s="37"/>
-      <c r="N17" s="56"/>
+      <c r="N17" s="55"/>
     </row>
-    <row r="18" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="93"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="99" t="s">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="84"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="100" t="s">
+      <c r="D18" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="102" t="s">
+      <c r="G18" s="93" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="17"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="47"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="46"/>
       <c r="M18" s="37"/>
-      <c r="N18" s="56"/>
+      <c r="N18" s="55"/>
     </row>
-    <row r="19" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="93"/>
+    <row r="19" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="84"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
@@ -30772,18 +30754,18 @@
       <c r="I19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="48"/>
-      <c r="N19" s="56"/>
+      <c r="L19" s="47"/>
+      <c r="N19" s="55"/>
     </row>
-    <row r="20" spans="1:14" s="45" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="93"/>
+    <row r="20" spans="1:14" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="84"/>
       <c r="B20" s="32"/>
       <c r="H20" s="33"/>
-      <c r="L20" s="48"/>
-      <c r="N20" s="56"/>
+      <c r="L20" s="47"/>
+      <c r="N20" s="55"/>
     </row>
-    <row r="21" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="93"/>
+    <row r="21" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="84"/>
       <c r="B21" s="34"/>
       <c r="C21" s="19"/>
       <c r="D21" s="35"/>
@@ -30791,391 +30773,391 @@
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
-      <c r="I21" s="78" t="s">
+      <c r="I21" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="79" t="s">
+      <c r="J21" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="50"/>
-      <c r="N21" s="56"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="49"/>
+      <c r="N21" s="55"/>
     </row>
-    <row r="22" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="93"/>
+    <row r="22" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="84"/>
       <c r="B22" s="36"/>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="78" t="s">
+      <c r="I22" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="107" t="s">
+      <c r="J22" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="N22" s="56"/>
+      <c r="K22" s="47"/>
+      <c r="N22" s="55"/>
     </row>
-    <row r="23" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="93"/>
-      <c r="C23" s="50"/>
-      <c r="N23" s="56"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="84"/>
+      <c r="C23" s="49"/>
+      <c r="N23" s="55"/>
     </row>
-    <row r="24" spans="1:14" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="93"/>
+    <row r="24" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="84"/>
       <c r="C24" s="17"/>
       <c r="E24" s="37"/>
       <c r="F24" s="17"/>
-      <c r="I24" s="71" t="s">
+      <c r="I24" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="80" t="s">
+      <c r="J24" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="71" t="s">
+      <c r="K24" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="56"/>
+      <c r="N24" s="55"/>
     </row>
-    <row r="25" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="93"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="84"/>
       <c r="D25" s="37"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
-      <c r="I25" s="144" t="s">
+      <c r="I25" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="144"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="144"/>
-      <c r="N25" s="56"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="N25" s="55"/>
     </row>
-    <row r="26" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="93"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="70" t="s">
+    <row r="26" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="84"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="70" t="s">
+      <c r="F26" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="133" t="s">
+      <c r="I26" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="N26" s="56"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="116"/>
+      <c r="N26" s="55"/>
     </row>
-    <row r="27" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="93"/>
-      <c r="B27" s="136" t="s">
+    <row r="27" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="84"/>
+      <c r="B27" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="105" t="s">
+      <c r="D27" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="106" t="s">
+      <c r="E27" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="67" t="s">
         <v>89</v>
       </c>
       <c r="I27" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="114" t="s">
+      <c r="J27" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="114" t="s">
+      <c r="K27" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="114" t="s">
+      <c r="L27" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="56"/>
+      <c r="N27" s="55"/>
     </row>
-    <row r="28" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="93"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="89" t="s">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="84"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="105" t="s">
+      <c r="D28" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="106" t="s">
+      <c r="E28" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="72" t="s">
+      <c r="F28" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="49"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="N28" s="56"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="N28" s="55"/>
     </row>
-    <row r="29" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="93"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="89" t="s">
+    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="84"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="105" t="s">
+      <c r="D29" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="106" t="s">
+      <c r="E29" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="72" t="s">
+      <c r="F29" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="51"/>
-      <c r="I29" s="78" t="s">
+      <c r="G29" s="50"/>
+      <c r="I29" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="81" t="s">
+      <c r="J29" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="76"/>
-      <c r="L29" s="82" t="s">
+      <c r="K29" s="71"/>
+      <c r="L29" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="57"/>
+      <c r="N29" s="56"/>
     </row>
-    <row r="30" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="93"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="71" t="s">
+    <row r="30" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="84"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="105" t="s">
+      <c r="D30" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="106" t="s">
+      <c r="E30" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="72" t="s">
+      <c r="F30" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="64"/>
-      <c r="N30" s="56"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="61"/>
+      <c r="N30" s="55"/>
     </row>
-    <row r="31" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="93"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="89" t="s">
+    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="84"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="105" t="s">
+      <c r="D31" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="106" t="s">
+      <c r="E31" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="72" t="s">
+      <c r="F31" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="78" t="s">
+      <c r="I31" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="81" t="s">
+      <c r="J31" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="76"/>
-      <c r="L31" s="81" t="s">
+      <c r="K31" s="71"/>
+      <c r="L31" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="56"/>
+      <c r="N31" s="55"/>
     </row>
-    <row r="32" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="93"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="97" t="s">
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="84"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="95" t="s">
+      <c r="D32" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="96" t="s">
+      <c r="E32" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="95" t="s">
+      <c r="F32" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="67"/>
-      <c r="N32" s="56"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="63"/>
+      <c r="N32" s="55"/>
     </row>
-    <row r="33" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="93"/>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="84"/>
       <c r="B33" s="23"/>
-      <c r="I33" s="78" t="s">
+      <c r="I33" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="81" t="s">
+      <c r="J33" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="76"/>
-      <c r="L33" s="81" t="s">
+      <c r="K33" s="71"/>
+      <c r="L33" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="N33" s="56"/>
+      <c r="N33" s="55"/>
     </row>
-    <row r="34" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="93"/>
-      <c r="B34" s="136" t="s">
+    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="84"/>
+      <c r="B34" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="72" t="s">
+      <c r="F34" s="67" t="s">
         <v>107</v>
       </c>
       <c r="H34" s="39"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="69"/>
-      <c r="N34" s="56"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="64"/>
+      <c r="N34" s="55"/>
     </row>
-    <row r="35" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="93"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="98" t="s">
+    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="84"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="95" t="s">
+      <c r="D35" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="96" t="s">
+      <c r="E35" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="95" t="s">
+      <c r="F35" s="87" t="s">
         <v>110</v>
       </c>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
-      <c r="I35" s="78" t="s">
+      <c r="I35" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="J35" s="83"/>
-      <c r="K35" s="81" t="s">
+      <c r="J35" s="78"/>
+      <c r="K35" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="L35" s="84" t="s">
+      <c r="L35" s="79" t="s">
         <v>63</v>
       </c>
       <c r="M35" s="40"/>
-      <c r="N35" s="56"/>
+      <c r="N35" s="55"/>
     </row>
-    <row r="36" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="93"/>
+    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="84"/>
       <c r="B36" s="23"/>
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="53"/>
+      <c r="J36" s="52"/>
       <c r="K36" s="40"/>
       <c r="L36" s="40"/>
       <c r="M36" s="40"/>
-      <c r="N36" s="56"/>
+      <c r="N36" s="55"/>
     </row>
-    <row r="37" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="93"/>
-      <c r="B37" s="136" t="s">
+    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="84"/>
+      <c r="B37" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="105" t="s">
+      <c r="D37" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="106" t="s">
+      <c r="E37" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="72" t="s">
+      <c r="F37" s="67" t="s">
         <v>75</v>
       </c>
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
-      <c r="I37" s="78" t="s">
+      <c r="I37" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="137" t="s">
+      <c r="J37" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="K37" s="138"/>
-      <c r="L37" s="139"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="105"/>
       <c r="M37" s="39"/>
-      <c r="N37" s="56"/>
+      <c r="N37" s="55"/>
     </row>
-    <row r="38" spans="1:14" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="93"/>
-      <c r="B38" s="143"/>
-      <c r="C38" s="98" t="s">
+    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="84"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="95" t="s">
+      <c r="D38" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="96" t="s">
+      <c r="E38" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="95" t="s">
+      <c r="F38" s="87" t="s">
         <v>78</v>
       </c>
       <c r="G38" s="41"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="78" t="s">
+      <c r="I38" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="137" t="s">
+      <c r="J38" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="K38" s="138"/>
-      <c r="L38" s="139"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="105"/>
       <c r="M38" s="40"/>
-      <c r="N38" s="56"/>
+      <c r="N38" s="55"/>
     </row>
-    <row r="39" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="93"/>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="84"/>
       <c r="M39" s="40"/>
-      <c r="N39" s="56"/>
+      <c r="N39" s="55"/>
     </row>
-    <row r="40" spans="1:14" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="93"/>
-      <c r="B40" s="140" t="s">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="84"/>
+      <c r="B40" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
       <c r="G40" s="42"/>
       <c r="H40" s="39"/>
       <c r="I40" s="18"/>
@@ -31183,10 +31165,10 @@
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
       <c r="M40" s="39"/>
-      <c r="N40" s="56"/>
+      <c r="N40" s="55"/>
     </row>
-    <row r="41" spans="1:14" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="93"/>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="84"/>
       <c r="B41" s="111" t="s">
         <v>49</v>
       </c>
@@ -31201,10 +31183,10 @@
       <c r="K41" s="111"/>
       <c r="L41" s="111"/>
       <c r="M41" s="39"/>
-      <c r="N41" s="56"/>
+      <c r="N41" s="55"/>
     </row>
-    <row r="42" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="93"/>
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="84"/>
       <c r="B42" s="111"/>
       <c r="C42" s="111"/>
       <c r="D42" s="111"/>
@@ -31217,10 +31199,10 @@
       <c r="K42" s="111"/>
       <c r="L42" s="111"/>
       <c r="M42" s="39"/>
-      <c r="N42" s="58"/>
+      <c r="N42" s="57"/>
     </row>
-    <row r="43" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="93"/>
+    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="84"/>
       <c r="B43" s="111"/>
       <c r="C43" s="111"/>
       <c r="D43" s="111"/>
@@ -31233,10 +31215,10 @@
       <c r="K43" s="111"/>
       <c r="L43" s="111"/>
       <c r="M43" s="39"/>
-      <c r="N43" s="58"/>
+      <c r="N43" s="57"/>
     </row>
-    <row r="44" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="93"/>
+    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="84"/>
       <c r="B44" s="111"/>
       <c r="C44" s="111"/>
       <c r="D44" s="111"/>
@@ -31249,10 +31231,10 @@
       <c r="K44" s="111"/>
       <c r="L44" s="111"/>
       <c r="M44" s="39"/>
-      <c r="N44" s="58"/>
+      <c r="N44" s="57"/>
     </row>
-    <row r="45" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="93"/>
+    <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="84"/>
       <c r="B45" s="111"/>
       <c r="C45" s="111"/>
       <c r="D45" s="111"/>
@@ -31264,11 +31246,11 @@
       <c r="J45" s="111"/>
       <c r="K45" s="111"/>
       <c r="L45" s="111"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="57"/>
     </row>
-    <row r="46" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="93"/>
+    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="84"/>
       <c r="B46" s="44"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
@@ -31276,14 +31258,14 @@
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="58"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="57"/>
     </row>
-    <row r="47" spans="1:14" s="45" customFormat="1" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="93"/>
+    <row r="47" spans="1:14" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="84"/>
       <c r="B47" s="43"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
@@ -31291,51 +31273,50 @@
       <c r="F47" s="39"/>
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="58"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="57"/>
     </row>
-    <row r="48" spans="1:14" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="93"/>
+    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="84"/>
       <c r="B48" s="43"/>
-      <c r="C48" s="54"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="58"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="82"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="57"/>
     </row>
-    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="90"/>
+    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="84"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="134" t="s">
+      <c r="C49" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="135"/>
-      <c r="E49" s="135"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="141" t="s">
+      <c r="H49" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="141"/>
-      <c r="J49" s="141"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="94"/>
+    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="86"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -31352,6 +31333,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A1:C5"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D1:J5"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="J27:J28"/>
@@ -31366,30 +31365,12 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="B41:L45"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:C5"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D1:J5"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27820"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollos\SP\APSS SP\ProyectoPrincipalAenza7\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6CA5E1-9C5D-42A8-8BC6-E622FB151837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA2764-50A5-4657-8F3E-DA1A4606D531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="445" xr2:uid="{9E40B278-673A-417E-9A41-08ACE2830EAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="445" xr2:uid="{9E40B278-673A-417E-9A41-08ACE2830EAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Boleta ENEL" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-280A]dddd\ d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1178,8 +1178,74 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1217,82 +1283,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1381,61 +1381,11 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1243853</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>152681</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC9060A-FA7A-468B-B89E-503F8FEBE8F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4325471" y="9312089"/>
-          <a:ext cx="1916206" cy="1138798"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="BOL"/>
@@ -1476,7 +1426,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="MOLLENDO DIARIO"/>
@@ -1493,7 +1443,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Correción 4606B"/>
@@ -1568,7 +1518,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ROMT"/>
@@ -22448,7 +22398,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABLAS"/>
@@ -23057,7 +23007,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="..."/>
@@ -23154,7 +23104,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="XXXXXXX"/>
@@ -28237,7 +28187,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="..."/>
@@ -28397,7 +28347,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Datos"/>
@@ -28422,7 +28372,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FECHA"/>
@@ -28708,7 +28658,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="COMPRAS DE GAS"/>
@@ -30370,126 +30320,126 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="1" customWidth="1"/>
     <col min="9" max="9" width="30" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.36328125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.54296875" style="1"/>
+    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="122"/>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="125" t="s">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="114"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="119" t="s">
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="121"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
     </row>
-    <row r="2" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="134" t="s">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="115"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="107"/>
     </row>
-    <row r="3" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="117" t="s">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="118"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="110"/>
     </row>
-    <row r="4" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="112" t="s">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="114"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="113"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="120"/>
+      <c r="M4" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="115"/>
+      <c r="N4" s="107"/>
       <c r="O4" s="84"/>
     </row>
-    <row r="5" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="114" t="s">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="117" t="s">
+      <c r="L5" s="106"/>
+      <c r="M5" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="118"/>
+      <c r="N5" s="110"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="85"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -30505,7 +30455,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="84"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -30523,7 +30473,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="84"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -30541,7 +30491,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -30557,7 +30507,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="84"/>
       <c r="B10" s="17"/>
       <c r="G10" s="18"/>
@@ -30571,7 +30521,7 @@
       <c r="M10" s="21"/>
       <c r="N10" s="55"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="84"/>
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
@@ -30586,7 +30536,7 @@
       <c r="M11" s="21"/>
       <c r="N11" s="55"/>
     </row>
-    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="84"/>
       <c r="B12" s="22"/>
       <c r="C12" s="17"/>
@@ -30600,7 +30550,7 @@
       </c>
       <c r="N12" s="55"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="84"/>
       <c r="B13" s="23"/>
       <c r="C13" s="17"/>
@@ -30611,22 +30561,22 @@
       <c r="H13" s="17"/>
       <c r="N13" s="55"/>
     </row>
-    <row r="14" spans="1:15" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="84"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="124" t="s">
+      <c r="E14" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="99" t="s">
+      <c r="F14" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="99" t="s">
+      <c r="G14" s="116" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="25"/>
@@ -30639,14 +30589,14 @@
       </c>
       <c r="N14" s="55"/>
     </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="84"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
       <c r="H15" s="17"/>
       <c r="I15" s="72" t="s">
         <v>52</v>
@@ -30660,24 +30610,24 @@
       <c r="L15" s="45"/>
       <c r="N15" s="55"/>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="84"/>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="130" t="s">
+      <c r="D16" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="132" t="s">
+      <c r="F16" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="136" t="s">
+      <c r="G16" s="134" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="17"/>
@@ -30694,14 +30644,14 @@
       <c r="M16" s="37"/>
       <c r="N16" s="55"/>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="84"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="137"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="135"/>
       <c r="H17" s="17"/>
       <c r="I17" s="72" t="s">
         <v>54</v>
@@ -30716,9 +30666,9 @@
       <c r="M17" s="37"/>
       <c r="N17" s="55"/>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="84"/>
-      <c r="B18" s="99"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="90" t="s">
         <v>72</v>
       </c>
@@ -30742,7 +30692,7 @@
       <c r="M18" s="37"/>
       <c r="N18" s="55"/>
     </row>
-    <row r="19" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="84"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
@@ -30757,14 +30707,14 @@
       <c r="L19" s="47"/>
       <c r="N19" s="55"/>
     </row>
-    <row r="20" spans="1:14" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="84"/>
       <c r="B20" s="32"/>
       <c r="H20" s="33"/>
       <c r="L20" s="47"/>
       <c r="N20" s="55"/>
     </row>
-    <row r="21" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="84"/>
       <c r="B21" s="34"/>
       <c r="C21" s="19"/>
@@ -30783,7 +30733,7 @@
       <c r="L21" s="49"/>
       <c r="N21" s="55"/>
     </row>
-    <row r="22" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="84"/>
       <c r="B22" s="36"/>
       <c r="E22" s="1" t="s">
@@ -30798,12 +30748,12 @@
       <c r="K22" s="47"/>
       <c r="N22" s="55"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="84"/>
       <c r="C23" s="49"/>
       <c r="N23" s="55"/>
     </row>
-    <row r="24" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="84"/>
       <c r="C24" s="17"/>
       <c r="E24" s="37"/>
@@ -30824,15 +30774,15 @@
       <c r="D25" s="37"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
-      <c r="I25" s="110" t="s">
+      <c r="I25" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
       <c r="N25" s="55"/>
     </row>
-    <row r="26" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="84"/>
       <c r="B26" s="24"/>
       <c r="C26" s="65" t="s">
@@ -30847,17 +30797,17 @@
       <c r="F26" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="116" t="s">
+      <c r="I26" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
       <c r="N26" s="55"/>
     </row>
-    <row r="27" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="84"/>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="124" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="66" t="s">
@@ -30875,20 +30825,20 @@
       <c r="I27" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="99" t="s">
+      <c r="J27" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="99" t="s">
+      <c r="K27" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="99" t="s">
+      <c r="L27" s="116" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="55"/>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="84"/>
-      <c r="B28" s="108"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="83" t="s">
         <v>80</v>
       </c>
@@ -30903,14 +30853,14 @@
       </c>
       <c r="G28" s="49"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
       <c r="N28" s="55"/>
     </row>
-    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="84"/>
-      <c r="B29" s="108"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="83" t="s">
         <v>81</v>
       </c>
@@ -30936,9 +30886,9 @@
       </c>
       <c r="N29" s="56"/>
     </row>
-    <row r="30" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="84"/>
-      <c r="B30" s="108"/>
+      <c r="B30" s="130"/>
       <c r="C30" s="66" t="s">
         <v>82</v>
       </c>
@@ -30957,9 +30907,9 @@
       <c r="L30" s="61"/>
       <c r="N30" s="55"/>
     </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="84"/>
-      <c r="B31" s="108"/>
+      <c r="B31" s="130"/>
       <c r="C31" s="83" t="s">
         <v>83</v>
       </c>
@@ -30984,9 +30934,9 @@
       </c>
       <c r="N31" s="55"/>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="84"/>
-      <c r="B32" s="109"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="83" t="s">
         <v>72</v>
       </c>
@@ -31005,7 +30955,7 @@
       <c r="L32" s="63"/>
       <c r="N32" s="55"/>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="84"/>
       <c r="B33" s="23"/>
       <c r="I33" s="73" t="s">
@@ -31020,9 +30970,9 @@
       </c>
       <c r="N33" s="55"/>
     </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="84"/>
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="124" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="66" t="s">
@@ -31044,9 +30994,9 @@
       <c r="L34" s="64"/>
       <c r="N34" s="55"/>
     </row>
-    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="84"/>
-      <c r="B35" s="109"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="89" t="s">
         <v>72</v>
       </c>
@@ -31074,7 +31024,7 @@
       <c r="M35" s="40"/>
       <c r="N35" s="55"/>
     </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="84"/>
       <c r="B36" s="23"/>
       <c r="G36" s="39"/>
@@ -31086,9 +31036,9 @@
       <c r="M36" s="40"/>
       <c r="N36" s="55"/>
     </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="84"/>
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="124" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="66" t="s">
@@ -31108,17 +31058,17 @@
       <c r="I37" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="103" t="s">
+      <c r="J37" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="K37" s="104"/>
-      <c r="L37" s="105"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="127"/>
       <c r="M37" s="39"/>
       <c r="N37" s="55"/>
     </row>
-    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="84"/>
-      <c r="B38" s="109"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="89" t="s">
         <v>72</v>
       </c>
@@ -31136,28 +31086,28 @@
       <c r="I38" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="103" t="s">
+      <c r="J38" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="K38" s="104"/>
-      <c r="L38" s="105"/>
+      <c r="K38" s="126"/>
+      <c r="L38" s="127"/>
       <c r="M38" s="40"/>
       <c r="N38" s="55"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="84"/>
       <c r="M39" s="40"/>
       <c r="N39" s="55"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="84"/>
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
       <c r="G40" s="42"/>
       <c r="H40" s="39"/>
       <c r="I40" s="18"/>
@@ -31167,89 +31117,89 @@
       <c r="M40" s="39"/>
       <c r="N40" s="55"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="84"/>
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="111"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="133"/>
       <c r="M41" s="39"/>
       <c r="N41" s="55"/>
     </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="84"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="111"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="133"/>
       <c r="M42" s="39"/>
       <c r="N42" s="57"/>
     </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="84"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="111"/>
-      <c r="I43" s="111"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="111"/>
-      <c r="L43" s="111"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="133"/>
       <c r="M43" s="39"/>
       <c r="N43" s="57"/>
     </row>
-    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="84"/>
-      <c r="B44" s="111"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="111"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="133"/>
       <c r="M44" s="39"/>
       <c r="N44" s="57"/>
     </row>
-    <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="84"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="111"/>
-      <c r="J45" s="111"/>
-      <c r="K45" s="111"/>
-      <c r="L45" s="111"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
       <c r="M45" s="58"/>
       <c r="N45" s="57"/>
     </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="84"/>
       <c r="B46" s="44"/>
       <c r="C46" s="39"/>
@@ -31264,7 +31214,7 @@
       <c r="M46" s="58"/>
       <c r="N46" s="57"/>
     </row>
-    <row r="47" spans="1:14" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="84"/>
       <c r="B47" s="43"/>
       <c r="C47" s="39"/>
@@ -31280,7 +31230,7 @@
       <c r="M47" s="58"/>
       <c r="N47" s="57"/>
     </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="84"/>
       <c r="B48" s="43"/>
       <c r="C48" s="53"/>
@@ -31295,27 +31245,27 @@
       <c r="M48" s="58"/>
       <c r="N48" s="57"/>
     </row>
-    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="84"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="100" t="s">
+      <c r="C49" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="107" t="s">
+      <c r="H49" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="107"/>
-      <c r="J49" s="107"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="86"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -31333,21 +31283,9 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:C5"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D1:J5"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B41:L45"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
@@ -31364,13 +31302,25 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="I25:L25"/>
-    <mergeCell ref="B41:L45"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A1:C5"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D1:J5"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="64" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppV2\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA2764-50A5-4657-8F3E-DA1A4606D531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563656F9-3716-4007-899F-6F791BD50755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="445" xr2:uid="{9E40B278-673A-417E-9A41-08ACE2830EAA}"/>
   </bookViews>
@@ -106,14 +106,14 @@
     <definedName name="_TTA1">#REF!</definedName>
     <definedName name="_TTD2">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Boleta ENEL'!$A$1:$N$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Boleta ENEL'!$A$1:$O$51</definedName>
     <definedName name="_xlnm.Database">'[4]TABLA TRINITY'!#REF!</definedName>
     <definedName name="BBB">#REF!</definedName>
     <definedName name="CCC">#REF!</definedName>
     <definedName name="CO">[5]corcerviz!$A$8:$T$38</definedName>
     <definedName name="CONCERDIESEL">#REF!</definedName>
-    <definedName name="ConsumoPropio_Items">'Boleta ENEL'!$B$30:$F$31</definedName>
-    <definedName name="ConsumoPropioGnsVendioEnel_Items">'Boleta ENEL'!$B$37:$F$38</definedName>
+    <definedName name="ConsumoPropio_Items">'Boleta ENEL'!$B$30:$G$31</definedName>
+    <definedName name="ConsumoPropioGnsVendioEnel_Items">'Boleta ENEL'!$B$37:$G$38</definedName>
     <definedName name="CORD2">#REF!</definedName>
     <definedName name="DDD">#REF!</definedName>
     <definedName name="DDDD">#REF!</definedName>
@@ -121,11 +121,11 @@
     <definedName name="DIARIO">#REF!</definedName>
     <definedName name="Firmas">INDEX('[6]DATOS CORREOS'!$L$2:$L$9,MATCH([7]Datos!$U$2,'[6]DATOS CORREOS'!$K$2:$K$9,0))</definedName>
     <definedName name="GGG">#REF!</definedName>
-    <definedName name="GnsAEnel_Items">'Boleta ENEL'!$B$27:$F$28</definedName>
+    <definedName name="GnsAEnel_Items">'Boleta ENEL'!$B$27:$G$28</definedName>
     <definedName name="HORARIO">#REF!</definedName>
     <definedName name="HORAS">#REF!</definedName>
     <definedName name="INVROMT">#REF!</definedName>
-    <definedName name="LiquidosBarriles_Items">'Boleta ENEL'!$I$15:$K$16</definedName>
+    <definedName name="LiquidosBarriles_Items">'Boleta ENEL'!$J$15:$L$16</definedName>
     <definedName name="MAR">#REF!</definedName>
     <definedName name="MARCIANITO">#REF!</definedName>
     <definedName name="MARCIANITO20">#REF!</definedName>
@@ -888,7 +888,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="154">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1019,9 +1019,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1039,9 +1036,6 @@
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1136,7 +1130,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1151,10 +1144,6 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1178,16 +1167,28 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1196,46 +1197,34 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1244,8 +1233,38 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1280,8 +1299,17 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1289,11 +1317,35 @@
     <xf numFmtId="166" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -30318,132 +30370,137 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.5546875" style="1"/>
+    <col min="3" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="114"/>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="118" t="s">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="111" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="113"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="146"/>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="105" t="s">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="107"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="149"/>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="108" t="s">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="110"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="117"/>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119" t="s">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="120"/>
-      <c r="M4" s="106" t="s">
+      <c r="M4" s="115"/>
+      <c r="N4" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="84"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="81"/>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="106" t="s">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="106"/>
-      <c r="M5" s="108" t="s">
+      <c r="M5" s="101"/>
+      <c r="N5" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="110"/>
+      <c r="O5" s="117"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="82"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -30453,91 +30510,96 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="84"/>
+    <row r="7" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="81"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="4"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="7"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="84"/>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="81"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="7"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="84"/>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="81"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="7"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="84"/>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="81"/>
       <c r="B10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="J10" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="55"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="53"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="84"/>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="81"/>
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="21"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="55"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="53"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="84"/>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="81"/>
       <c r="B12" s="22"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -30545,13 +30607,14 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N12" s="55"/>
+      <c r="O12" s="53"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="84"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="81"/>
       <c r="B13" s="23"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -30559,764 +30622,831 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="N13" s="55"/>
+      <c r="I13" s="17"/>
+      <c r="O13" s="53"/>
     </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="84"/>
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="81"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="115"/>
+      <c r="E14" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="117" t="s">
+      <c r="F14" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="116" t="s">
+      <c r="G14" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="116" t="s">
+      <c r="H14" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="70" t="s">
+      <c r="I14" s="25"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="70" t="s">
+      <c r="L14" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="55"/>
+      <c r="O14" s="53"/>
     </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="84"/>
+    <row r="15" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="81"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="72" t="s">
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="94" t="s">
+      <c r="K15" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="94" t="s">
+      <c r="L15" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="N15" s="55"/>
+      <c r="M15" s="44"/>
+      <c r="O15" s="53"/>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
-      <c r="B16" s="116" t="s">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="81"/>
+      <c r="B16" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="136" t="s">
+      <c r="C16" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="119"/>
+      <c r="E16" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="F16" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="G16" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="134" t="s">
+      <c r="H16" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="17"/>
+      <c r="J16" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="94" t="s">
+      <c r="K16" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="94" t="s">
+      <c r="L16" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="55"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="53"/>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="72" t="s">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="81"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="94" t="s">
+      <c r="K17" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="94" t="s">
+      <c r="L17" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="46"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="55"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="53"/>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="90" t="s">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="81"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="123"/>
+      <c r="E18" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="92" t="s">
+      <c r="F18" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="91" t="s">
+      <c r="G18" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="93" t="s">
+      <c r="H18" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="55"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="53"/>
     </row>
-    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="84"/>
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="81"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="31" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="47"/>
-      <c r="N19" s="55"/>
+      <c r="M19" s="46"/>
+      <c r="O19" s="53"/>
     </row>
-    <row r="20" spans="1:14" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="84"/>
+    <row r="20" spans="1:15" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="81"/>
       <c r="B20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="L20" s="47"/>
-      <c r="N20" s="55"/>
+      <c r="I20" s="33"/>
+      <c r="M20" s="46"/>
+      <c r="O20" s="53"/>
     </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="84"/>
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="81"/>
       <c r="B21" s="34"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="33"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
-      <c r="I21" s="73" t="s">
+      <c r="I21" s="33"/>
+      <c r="J21" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="74" t="s">
+      <c r="K21" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="49"/>
-      <c r="N21" s="55"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="O21" s="53"/>
     </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="84"/>
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="81"/>
       <c r="B22" s="36"/>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="73" t="s">
+      <c r="J22" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="98" t="s">
+      <c r="K22" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="47"/>
-      <c r="N22" s="55"/>
+      <c r="L22" s="46"/>
+      <c r="O22" s="53"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="84"/>
-      <c r="C23" s="49"/>
-      <c r="N23" s="55"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="81"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="O23" s="53"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="84"/>
+    <row r="24" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="81"/>
       <c r="C24" s="17"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="17"/>
-      <c r="I24" s="66" t="s">
+      <c r="D24" s="17"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="17"/>
+      <c r="J24" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="75" t="s">
+      <c r="K24" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="66" t="s">
+      <c r="L24" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="55"/>
+      <c r="O24" s="53"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="84"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="17"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="81"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="17"/>
-      <c r="I25" s="132" t="s">
+      <c r="G25" s="17"/>
+      <c r="J25" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="N25" s="55"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="O25" s="53"/>
     </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="84"/>
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="81"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="125"/>
+      <c r="E26" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="F26" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="G26" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="121" t="s">
+      <c r="J26" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="N26" s="55"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="O26" s="53"/>
     </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="84"/>
-      <c r="B27" s="124" t="s">
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="81"/>
+      <c r="B27" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D27" s="99"/>
+      <c r="E27" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="F27" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="G27" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="J27" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="116" t="s">
+      <c r="K27" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="116" t="s">
+      <c r="L27" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="116" t="s">
+      <c r="M27" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="55"/>
+      <c r="O27" s="53"/>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="84"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="83" t="s">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="81"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="153"/>
+      <c r="E28" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="F28" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="67" t="s">
+      <c r="G28" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="N28" s="55"/>
+      <c r="H28" s="48"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="O28" s="53"/>
     </row>
-    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="84"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="83" t="s">
+    <row r="29" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="81"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="153"/>
+      <c r="E29" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="F29" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="67" t="s">
+      <c r="G29" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="50"/>
-      <c r="I29" s="73" t="s">
+      <c r="H29" s="49"/>
+      <c r="J29" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="76" t="s">
+      <c r="K29" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="71"/>
-      <c r="L29" s="77" t="s">
+      <c r="L29" s="69"/>
+      <c r="M29" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="56"/>
+      <c r="O29" s="54"/>
     </row>
-    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="84"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="66" t="s">
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="81"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="99"/>
+      <c r="E30" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="97" t="s">
+      <c r="F30" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="G30" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="61"/>
-      <c r="N30" s="55"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="59"/>
+      <c r="O30" s="53"/>
     </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="84"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="83" t="s">
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="81"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="96" t="s">
+      <c r="D31" s="153"/>
+      <c r="E31" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="97" t="s">
+      <c r="F31" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="G31" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="73" t="s">
+      <c r="J31" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="76" t="s">
+      <c r="K31" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="71"/>
-      <c r="L31" s="76" t="s">
+      <c r="L31" s="69"/>
+      <c r="M31" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="55"/>
+      <c r="O31" s="53"/>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="84"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="83" t="s">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="81"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="87" t="s">
+      <c r="D32" s="153"/>
+      <c r="E32" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="88" t="s">
+      <c r="F32" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="G32" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="63"/>
-      <c r="N32" s="55"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="61"/>
+      <c r="O32" s="53"/>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="84"/>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="81"/>
       <c r="B33" s="23"/>
-      <c r="I33" s="73" t="s">
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="J33" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="76" t="s">
+      <c r="K33" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="71"/>
-      <c r="L33" s="76" t="s">
+      <c r="L33" s="69"/>
+      <c r="M33" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="N33" s="55"/>
+      <c r="O33" s="53"/>
     </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="84"/>
-      <c r="B34" s="124" t="s">
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="81"/>
+      <c r="B34" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="99"/>
+      <c r="E34" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="68" t="s">
+      <c r="F34" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="67" t="s">
+      <c r="G34" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="64"/>
-      <c r="N34" s="55"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="62"/>
+      <c r="O34" s="53"/>
     </row>
-    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="84"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="89" t="s">
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="81"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="153"/>
+      <c r="E35" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="88" t="s">
+      <c r="F35" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="87" t="s">
+      <c r="G35" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="39"/>
       <c r="H35" s="39"/>
-      <c r="I35" s="73" t="s">
+      <c r="I35" s="39"/>
+      <c r="J35" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="J35" s="78"/>
-      <c r="K35" s="76" t="s">
+      <c r="K35" s="76"/>
+      <c r="L35" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="L35" s="79" t="s">
+      <c r="M35" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="M35" s="40"/>
-      <c r="N35" s="55"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="53"/>
     </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="81"/>
       <c r="B36" s="23"/>
-      <c r="G36" s="39"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
       <c r="H36" s="39"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="40"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="50"/>
       <c r="L36" s="40"/>
       <c r="M36" s="40"/>
-      <c r="N36" s="55"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="53"/>
     </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
-      <c r="B37" s="124" t="s">
+    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="81"/>
+      <c r="B37" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="96" t="s">
+      <c r="D37" s="99"/>
+      <c r="E37" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="97" t="s">
+      <c r="F37" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="67" t="s">
+      <c r="G37" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="39"/>
       <c r="H37" s="39"/>
-      <c r="I37" s="73" t="s">
+      <c r="I37" s="39"/>
+      <c r="J37" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="125" t="s">
+      <c r="K37" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="K37" s="126"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="55"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="132"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="53"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="84"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="89" t="s">
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="81"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="87" t="s">
+      <c r="D38" s="153"/>
+      <c r="E38" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="88" t="s">
+      <c r="F38" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="G38" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="41"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="73" t="s">
+      <c r="I38" s="41"/>
+      <c r="J38" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="125" t="s">
+      <c r="K38" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="K38" s="126"/>
-      <c r="L38" s="127"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="55"/>
+      <c r="L38" s="131"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="53"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="84"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="55"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="81"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="53"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="84"/>
-      <c r="B40" s="128" t="s">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="81"/>
+      <c r="B40" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="38"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="18"/>
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="55"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="53"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="84"/>
-      <c r="B41" s="133" t="s">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="81"/>
+      <c r="B41" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="133"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="55"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="53"/>
     </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="84"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="57"/>
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="81"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="55"/>
     </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="84"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
-      <c r="D43" s="133"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="57"/>
+    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="81"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="55"/>
     </row>
-    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="84"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="57"/>
+    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="81"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="55"/>
     </row>
-    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="84"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="57"/>
+    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="81"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="55"/>
     </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="84"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="57"/>
+    <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="81"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
+      <c r="L46" s="104"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="55"/>
     </row>
-    <row r="47" spans="1:14" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="84"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="57"/>
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="81"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
+      <c r="L47" s="104"/>
+      <c r="M47" s="104"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="55"/>
     </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="84"/>
+    <row r="48" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="81"/>
       <c r="B48" s="43"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="82"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="57"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="55"/>
     </row>
-    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="84"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="122" t="s">
+    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="81"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="80"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="55"/>
+    </row>
+    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="81"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="129" t="s">
+      <c r="D50" s="127"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="11"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="11"/>
     </row>
-    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="86"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="16"/>
+    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="83"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B41:L45"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="J27:J28"/>
+  <mergeCells count="47">
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E1:K5"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C50:F50"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="L27:L28"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="I50:K50"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:C5"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D1:J5"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B41:M47"/>
+    <mergeCell ref="A1:D5"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppV2\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563656F9-3716-4007-899F-6F791BD50755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEB1D0D-E110-4E34-9F9F-86041CF1C367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="445" xr2:uid="{9E40B278-673A-417E-9A41-08ACE2830EAA}"/>
   </bookViews>
@@ -106,7 +106,7 @@
     <definedName name="_TTA1">#REF!</definedName>
     <definedName name="_TTD2">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Boleta ENEL'!$A$1:$O$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Boleta ENEL'!$A$1:$O$56</definedName>
     <definedName name="_xlnm.Database">'[4]TABLA TRINITY'!#REF!</definedName>
     <definedName name="BBB">#REF!</definedName>
     <definedName name="CCC">#REF!</definedName>
@@ -1176,6 +1176,105 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1187,9 +1286,6 @@
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1227,18 +1323,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1262,90 +1346,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -30370,10 +30370,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30395,106 +30395,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="105"/>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="148" t="s">
+      <c r="A1" s="137"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="144" t="s">
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="146"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="107"/>
     </row>
     <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="108"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="150" t="s">
+      <c r="A2" s="140"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="149"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="114"/>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
       <c r="L3" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="118"/>
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="114" t="s">
+      <c r="A4" s="140"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="115"/>
-      <c r="N4" s="101" t="s">
+      <c r="M4" s="112"/>
+      <c r="N4" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="149"/>
+      <c r="O4" s="114"/>
       <c r="P4" s="81"/>
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="101" t="s">
+      <c r="A5" s="143"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="101"/>
+      <c r="M5" s="113"/>
       <c r="N5" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="117"/>
+      <c r="O5" s="118"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="82"/>
@@ -30628,20 +30628,20 @@
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="81"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="126" t="s">
+      <c r="D14" s="112"/>
+      <c r="E14" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="147" t="s">
+      <c r="F14" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="126" t="s">
+      <c r="G14" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="126" t="s">
+      <c r="H14" s="108" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="25"/>
@@ -30658,11 +30658,11 @@
       <c r="A15" s="81"/>
       <c r="B15" s="24"/>
       <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
       <c r="I15" s="17"/>
       <c r="J15" s="70" t="s">
         <v>52</v>
@@ -30678,23 +30678,23 @@
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="81"/>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="138" t="s">
+      <c r="D16" s="147"/>
+      <c r="E16" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="140" t="s">
+      <c r="F16" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="102" t="s">
+      <c r="G16" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="142" t="s">
+      <c r="H16" s="103" t="s">
         <v>41</v>
       </c>
       <c r="I16" s="17"/>
@@ -30713,13 +30713,13 @@
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="81"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="143"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="104"/>
       <c r="I17" s="17"/>
       <c r="J17" s="70" t="s">
         <v>54</v>
@@ -30736,11 +30736,11 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="81"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="122" t="s">
+      <c r="B18" s="108"/>
+      <c r="C18" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="123"/>
+      <c r="D18" s="151"/>
       <c r="E18" s="86" t="s">
         <v>38</v>
       </c>
@@ -30847,21 +30847,21 @@
       <c r="E25" s="37"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-      <c r="J25" s="137" t="s">
+      <c r="J25" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
       <c r="O25" s="53"/>
     </row>
     <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="81"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="124" t="s">
+      <c r="C26" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="125"/>
+      <c r="D26" s="153"/>
       <c r="E26" s="63" t="s">
         <v>8</v>
       </c>
@@ -30871,23 +30871,23 @@
       <c r="G26" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="100" t="s">
+      <c r="J26" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
       <c r="O26" s="53"/>
     </row>
     <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="81"/>
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="99"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="91" t="s">
         <v>87</v>
       </c>
@@ -30900,24 +30900,24 @@
       <c r="J27" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="126" t="s">
+      <c r="K27" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="L27" s="126" t="s">
+      <c r="L27" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="126" t="s">
+      <c r="M27" s="108" t="s">
         <v>28</v>
       </c>
       <c r="O27" s="53"/>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="81"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="152" t="s">
+      <c r="B28" s="128"/>
+      <c r="C28" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="153"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="91" t="s">
         <v>90</v>
       </c>
@@ -30929,18 +30929,18 @@
       </c>
       <c r="H28" s="48"/>
       <c r="J28" s="24"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="122"/>
       <c r="O28" s="53"/>
     </row>
     <row r="29" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="81"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="152" t="s">
+      <c r="B29" s="128"/>
+      <c r="C29" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="153"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="91" t="s">
         <v>93</v>
       </c>
@@ -30965,11 +30965,11 @@
     </row>
     <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="81"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="98" t="s">
+      <c r="B30" s="128"/>
+      <c r="C30" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="99"/>
+      <c r="D30" s="132"/>
       <c r="E30" s="91" t="s">
         <v>96</v>
       </c>
@@ -30987,11 +30987,11 @@
     </row>
     <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="81"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="152" t="s">
+      <c r="B31" s="128"/>
+      <c r="C31" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="153"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="91" t="s">
         <v>99</v>
       </c>
@@ -31015,11 +31015,11 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="81"/>
-      <c r="B32" s="136"/>
-      <c r="C32" s="152" t="s">
+      <c r="B32" s="129"/>
+      <c r="C32" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="153"/>
+      <c r="D32" s="98"/>
       <c r="E32" s="84" t="s">
         <v>102</v>
       </c>
@@ -31054,13 +31054,13 @@
     </row>
     <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="81"/>
-      <c r="B34" s="129" t="s">
+      <c r="B34" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="98" t="s">
+      <c r="C34" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="99"/>
+      <c r="D34" s="132"/>
       <c r="E34" s="65" t="s">
         <v>105</v>
       </c>
@@ -31079,11 +31079,11 @@
     </row>
     <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="81"/>
-      <c r="B35" s="136"/>
-      <c r="C35" s="152" t="s">
+      <c r="B35" s="129"/>
+      <c r="C35" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="153"/>
+      <c r="D35" s="98"/>
       <c r="E35" s="84" t="s">
         <v>108</v>
       </c>
@@ -31124,13 +31124,13 @@
     </row>
     <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="81"/>
-      <c r="B37" s="129" t="s">
+      <c r="B37" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C37" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="99"/>
+      <c r="D37" s="132"/>
       <c r="E37" s="91" t="s">
         <v>73</v>
       </c>
@@ -31145,21 +31145,21 @@
       <c r="J37" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="K37" s="130" t="s">
+      <c r="K37" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="L37" s="131"/>
-      <c r="M37" s="132"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="125"/>
       <c r="N37" s="39"/>
       <c r="O37" s="53"/>
     </row>
     <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="81"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="152" t="s">
+      <c r="B38" s="129"/>
+      <c r="C38" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="153"/>
+      <c r="D38" s="98"/>
       <c r="E38" s="84" t="s">
         <v>76</v>
       </c>
@@ -31174,11 +31174,11 @@
       <c r="J38" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="K38" s="130" t="s">
+      <c r="K38" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="L38" s="131"/>
-      <c r="M38" s="132"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="125"/>
       <c r="N38" s="40"/>
       <c r="O38" s="53"/>
     </row>
@@ -31189,14 +31189,14 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="81"/>
-      <c r="B40" s="133" t="s">
+      <c r="B40" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
       <c r="H40" s="42"/>
       <c r="I40" s="39"/>
       <c r="J40" s="18"/>
@@ -31208,198 +31208,315 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="81"/>
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="104"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="136"/>
+      <c r="M41" s="136"/>
       <c r="N41" s="39"/>
       <c r="O41" s="53"/>
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="81"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="104"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="104"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="136"/>
+      <c r="L42" s="136"/>
+      <c r="M42" s="136"/>
       <c r="N42" s="39"/>
       <c r="O42" s="55"/>
     </row>
     <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="81"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="104"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="136"/>
+      <c r="M43" s="136"/>
       <c r="N43" s="39"/>
       <c r="O43" s="55"/>
     </row>
     <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="81"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="104"/>
-      <c r="J44" s="104"/>
-      <c r="K44" s="104"/>
-      <c r="L44" s="104"/>
-      <c r="M44" s="104"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="136"/>
+      <c r="L44" s="136"/>
+      <c r="M44" s="136"/>
       <c r="N44" s="39"/>
       <c r="O44" s="55"/>
     </row>
     <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="81"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="104"/>
-      <c r="L45" s="104"/>
-      <c r="M45" s="104"/>
-      <c r="N45" s="56"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="136"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="39"/>
       <c r="O45" s="55"/>
     </row>
     <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="81"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="104"/>
-      <c r="K46" s="104"/>
-      <c r="L46" s="104"/>
-      <c r="M46" s="104"/>
-      <c r="N46" s="56"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="136"/>
+      <c r="L46" s="136"/>
+      <c r="M46" s="136"/>
+      <c r="N46" s="39"/>
       <c r="O46" s="55"/>
     </row>
     <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="81"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="104"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="104"/>
-      <c r="L47" s="104"/>
-      <c r="M47" s="104"/>
-      <c r="N47" s="56"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
+      <c r="K47" s="136"/>
+      <c r="L47" s="136"/>
+      <c r="M47" s="136"/>
+      <c r="N47" s="39"/>
       <c r="O47" s="55"/>
     </row>
-    <row r="48" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="81"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="62"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
+      <c r="K48" s="136"/>
+      <c r="L48" s="136"/>
+      <c r="M48" s="136"/>
       <c r="N48" s="56"/>
       <c r="O48" s="55"/>
     </row>
     <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="81"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="80"/>
-      <c r="M49" s="62"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="136"/>
+      <c r="L49" s="136"/>
+      <c r="M49" s="136"/>
       <c r="N49" s="56"/>
       <c r="O49" s="55"/>
     </row>
     <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="81"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="127" t="s">
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="136"/>
+      <c r="L50" s="136"/>
+      <c r="M50" s="136"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="55"/>
+    </row>
+    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="81"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="136"/>
+      <c r="L51" s="136"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="55"/>
+    </row>
+    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="81"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="136"/>
+      <c r="K52" s="136"/>
+      <c r="L52" s="136"/>
+      <c r="M52" s="136"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="55"/>
+    </row>
+    <row r="53" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="81"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="55"/>
+    </row>
+    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="81"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="80"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="55"/>
+    </row>
+    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="81"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="127"/>
-      <c r="E50" s="128"/>
-      <c r="F50" s="128"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="134" t="s">
+      <c r="D55" s="120"/>
+      <c r="E55" s="121"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="J50" s="134"/>
-      <c r="K50" s="134"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="11"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="11"/>
     </row>
-    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="83"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="16"/>
+    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="83"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B41:M52"/>
+    <mergeCell ref="A1:D5"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="H16:H17"/>
@@ -31414,43 +31531,11 @@
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B41:M47"/>
-    <mergeCell ref="A1:D5"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B16:B18"/>
     <mergeCell ref="J25:M25"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/BoletaBalanceEnergia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppV2\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA2764-50A5-4657-8F3E-DA1A4606D531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEB1D0D-E110-4E34-9F9F-86041CF1C367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="445" xr2:uid="{9E40B278-673A-417E-9A41-08ACE2830EAA}"/>
   </bookViews>
@@ -106,14 +106,14 @@
     <definedName name="_TTA1">#REF!</definedName>
     <definedName name="_TTD2">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Boleta ENEL'!$A$1:$N$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Boleta ENEL'!$A$1:$O$56</definedName>
     <definedName name="_xlnm.Database">'[4]TABLA TRINITY'!#REF!</definedName>
     <definedName name="BBB">#REF!</definedName>
     <definedName name="CCC">#REF!</definedName>
     <definedName name="CO">[5]corcerviz!$A$8:$T$38</definedName>
     <definedName name="CONCERDIESEL">#REF!</definedName>
-    <definedName name="ConsumoPropio_Items">'Boleta ENEL'!$B$30:$F$31</definedName>
-    <definedName name="ConsumoPropioGnsVendioEnel_Items">'Boleta ENEL'!$B$37:$F$38</definedName>
+    <definedName name="ConsumoPropio_Items">'Boleta ENEL'!$B$30:$G$31</definedName>
+    <definedName name="ConsumoPropioGnsVendioEnel_Items">'Boleta ENEL'!$B$37:$G$38</definedName>
     <definedName name="CORD2">#REF!</definedName>
     <definedName name="DDD">#REF!</definedName>
     <definedName name="DDDD">#REF!</definedName>
@@ -121,11 +121,11 @@
     <definedName name="DIARIO">#REF!</definedName>
     <definedName name="Firmas">INDEX('[6]DATOS CORREOS'!$L$2:$L$9,MATCH([7]Datos!$U$2,'[6]DATOS CORREOS'!$K$2:$K$9,0))</definedName>
     <definedName name="GGG">#REF!</definedName>
-    <definedName name="GnsAEnel_Items">'Boleta ENEL'!$B$27:$F$28</definedName>
+    <definedName name="GnsAEnel_Items">'Boleta ENEL'!$B$27:$G$28</definedName>
     <definedName name="HORARIO">#REF!</definedName>
     <definedName name="HORAS">#REF!</definedName>
     <definedName name="INVROMT">#REF!</definedName>
-    <definedName name="LiquidosBarriles_Items">'Boleta ENEL'!$I$15:$K$16</definedName>
+    <definedName name="LiquidosBarriles_Items">'Boleta ENEL'!$J$15:$L$16</definedName>
     <definedName name="MAR">#REF!</definedName>
     <definedName name="MARCIANITO">#REF!</definedName>
     <definedName name="MARCIANITO20">#REF!</definedName>
@@ -888,7 +888,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="154">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1019,9 +1019,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1039,9 +1036,6 @@
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1136,7 +1130,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1151,10 +1144,6 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1178,6 +1167,21 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,28 +1194,10 @@
     <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1221,12 +1207,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1244,8 +1224,26 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1277,23 +1275,77 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -30318,132 +30370,137 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.5546875" style="1"/>
+    <col min="3" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="114"/>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="118" t="s">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="137"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="111" t="s">
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="113"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="107"/>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="105" t="s">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="140"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="107"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="114"/>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="108" t="s">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="140"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="110"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="118"/>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119" t="s">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="140"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="120"/>
-      <c r="M4" s="106" t="s">
+      <c r="M4" s="112"/>
+      <c r="N4" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="84"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="81"/>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="106" t="s">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="143"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="106"/>
-      <c r="M5" s="108" t="s">
+      <c r="M5" s="113"/>
+      <c r="N5" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="110"/>
+      <c r="O5" s="118"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="82"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -30453,91 +30510,96 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="84"/>
+    <row r="7" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="81"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="4"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="7"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="84"/>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="81"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="7"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="84"/>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="81"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="7"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="84"/>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="81"/>
       <c r="B10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="J10" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="55"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="53"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="84"/>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="81"/>
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="21"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="55"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="53"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="84"/>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="81"/>
       <c r="B12" s="22"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -30545,13 +30607,14 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N12" s="55"/>
+      <c r="O12" s="53"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="84"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="81"/>
       <c r="B13" s="23"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -30559,768 +30622,920 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="N13" s="55"/>
+      <c r="I13" s="17"/>
+      <c r="O13" s="53"/>
     </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="84"/>
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="81"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="112"/>
+      <c r="E14" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="117" t="s">
+      <c r="F14" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="116" t="s">
+      <c r="G14" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="116" t="s">
+      <c r="H14" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="70" t="s">
+      <c r="I14" s="25"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="70" t="s">
+      <c r="L14" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="55"/>
+      <c r="O14" s="53"/>
     </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="84"/>
+    <row r="15" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="81"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="72" t="s">
+      <c r="C15" s="116"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="94" t="s">
+      <c r="K15" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="94" t="s">
+      <c r="L15" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="N15" s="55"/>
+      <c r="M15" s="44"/>
+      <c r="O15" s="53"/>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
-      <c r="B16" s="116" t="s">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="81"/>
+      <c r="B16" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="136" t="s">
+      <c r="C16" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="147"/>
+      <c r="E16" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="F16" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="G16" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="134" t="s">
+      <c r="H16" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="17"/>
+      <c r="J16" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="94" t="s">
+      <c r="K16" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="94" t="s">
+      <c r="L16" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="55"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="53"/>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="104"/>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="81"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="135"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="72" t="s">
+      <c r="H17" s="104"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="94" t="s">
+      <c r="K17" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="94" t="s">
+      <c r="L17" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="46"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="55"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="53"/>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="90" t="s">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="81"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="151"/>
+      <c r="E18" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="92" t="s">
+      <c r="F18" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="91" t="s">
+      <c r="G18" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="93" t="s">
+      <c r="H18" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="55"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="53"/>
     </row>
-    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="84"/>
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="81"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="31" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="47"/>
-      <c r="N19" s="55"/>
+      <c r="M19" s="46"/>
+      <c r="O19" s="53"/>
     </row>
-    <row r="20" spans="1:14" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="84"/>
+    <row r="20" spans="1:15" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="81"/>
       <c r="B20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="L20" s="47"/>
-      <c r="N20" s="55"/>
+      <c r="I20" s="33"/>
+      <c r="M20" s="46"/>
+      <c r="O20" s="53"/>
     </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="84"/>
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="81"/>
       <c r="B21" s="34"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="33"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
-      <c r="I21" s="73" t="s">
+      <c r="I21" s="33"/>
+      <c r="J21" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="74" t="s">
+      <c r="K21" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="49"/>
-      <c r="N21" s="55"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="48"/>
+      <c r="O21" s="53"/>
     </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="84"/>
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="81"/>
       <c r="B22" s="36"/>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="73" t="s">
+      <c r="J22" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="98" t="s">
+      <c r="K22" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="47"/>
-      <c r="N22" s="55"/>
+      <c r="L22" s="46"/>
+      <c r="O22" s="53"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="84"/>
-      <c r="C23" s="49"/>
-      <c r="N23" s="55"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="81"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="O23" s="53"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="84"/>
+    <row r="24" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="81"/>
       <c r="C24" s="17"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="17"/>
-      <c r="I24" s="66" t="s">
+      <c r="D24" s="17"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="17"/>
+      <c r="J24" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="75" t="s">
+      <c r="K24" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="66" t="s">
+      <c r="L24" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="55"/>
+      <c r="O24" s="53"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="84"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="17"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="81"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="17"/>
-      <c r="I25" s="132" t="s">
+      <c r="G25" s="17"/>
+      <c r="J25" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="N25" s="55"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="O25" s="53"/>
     </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="84"/>
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="81"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="153"/>
+      <c r="E26" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="F26" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="G26" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="121" t="s">
+      <c r="J26" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="N26" s="55"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
+      <c r="O26" s="53"/>
     </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="84"/>
-      <c r="B27" s="124" t="s">
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="81"/>
+      <c r="B27" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D27" s="132"/>
+      <c r="E27" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="F27" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="G27" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="J27" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="116" t="s">
+      <c r="K27" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="116" t="s">
+      <c r="L27" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="116" t="s">
+      <c r="M27" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="55"/>
+      <c r="O27" s="53"/>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="84"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="83" t="s">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="81"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="98"/>
+      <c r="E28" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="F28" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="67" t="s">
+      <c r="G28" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="N28" s="55"/>
+      <c r="H28" s="48"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="122"/>
+      <c r="O28" s="53"/>
     </row>
-    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="84"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="83" t="s">
+    <row r="29" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="81"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="98"/>
+      <c r="E29" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="F29" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="67" t="s">
+      <c r="G29" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="50"/>
-      <c r="I29" s="73" t="s">
+      <c r="H29" s="49"/>
+      <c r="J29" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="76" t="s">
+      <c r="K29" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="71"/>
-      <c r="L29" s="77" t="s">
+      <c r="L29" s="69"/>
+      <c r="M29" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="56"/>
+      <c r="O29" s="54"/>
     </row>
-    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="84"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="66" t="s">
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="81"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="132"/>
+      <c r="E30" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="97" t="s">
+      <c r="F30" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="G30" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="61"/>
-      <c r="N30" s="55"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="59"/>
+      <c r="O30" s="53"/>
     </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="84"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="83" t="s">
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="81"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="96" t="s">
+      <c r="D31" s="98"/>
+      <c r="E31" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="97" t="s">
+      <c r="F31" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="G31" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="73" t="s">
+      <c r="J31" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="76" t="s">
+      <c r="K31" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="71"/>
-      <c r="L31" s="76" t="s">
+      <c r="L31" s="69"/>
+      <c r="M31" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="55"/>
+      <c r="O31" s="53"/>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="84"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="83" t="s">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="81"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="87" t="s">
+      <c r="D32" s="98"/>
+      <c r="E32" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="88" t="s">
+      <c r="F32" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="G32" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="63"/>
-      <c r="N32" s="55"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="61"/>
+      <c r="O32" s="53"/>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="84"/>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="81"/>
       <c r="B33" s="23"/>
-      <c r="I33" s="73" t="s">
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="J33" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="76" t="s">
+      <c r="K33" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="71"/>
-      <c r="L33" s="76" t="s">
+      <c r="L33" s="69"/>
+      <c r="M33" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="N33" s="55"/>
+      <c r="O33" s="53"/>
     </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="84"/>
-      <c r="B34" s="124" t="s">
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="81"/>
+      <c r="B34" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="132"/>
+      <c r="E34" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="68" t="s">
+      <c r="F34" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="67" t="s">
+      <c r="G34" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="64"/>
-      <c r="N34" s="55"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="62"/>
+      <c r="O34" s="53"/>
     </row>
-    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="84"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="89" t="s">
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="81"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="98"/>
+      <c r="E35" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="88" t="s">
+      <c r="F35" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="87" t="s">
+      <c r="G35" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="39"/>
       <c r="H35" s="39"/>
-      <c r="I35" s="73" t="s">
+      <c r="I35" s="39"/>
+      <c r="J35" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="J35" s="78"/>
-      <c r="K35" s="76" t="s">
+      <c r="K35" s="76"/>
+      <c r="L35" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="L35" s="79" t="s">
+      <c r="M35" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="M35" s="40"/>
-      <c r="N35" s="55"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="53"/>
     </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="81"/>
       <c r="B36" s="23"/>
-      <c r="G36" s="39"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
       <c r="H36" s="39"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="40"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="50"/>
       <c r="L36" s="40"/>
       <c r="M36" s="40"/>
-      <c r="N36" s="55"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="53"/>
     </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
-      <c r="B37" s="124" t="s">
+    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="81"/>
+      <c r="B37" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="96" t="s">
+      <c r="D37" s="132"/>
+      <c r="E37" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="97" t="s">
+      <c r="F37" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="67" t="s">
+      <c r="G37" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="39"/>
       <c r="H37" s="39"/>
-      <c r="I37" s="73" t="s">
+      <c r="I37" s="39"/>
+      <c r="J37" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="125" t="s">
+      <c r="K37" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="K37" s="126"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="55"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="125"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="53"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="84"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="89" t="s">
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="81"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="87" t="s">
+      <c r="D38" s="98"/>
+      <c r="E38" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="88" t="s">
+      <c r="F38" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="G38" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="41"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="73" t="s">
+      <c r="I38" s="41"/>
+      <c r="J38" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="125" t="s">
+      <c r="K38" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="K38" s="126"/>
-      <c r="L38" s="127"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="55"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="125"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="53"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="84"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="55"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="81"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="53"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="84"/>
-      <c r="B40" s="128" t="s">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="81"/>
+      <c r="B40" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="38"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="18"/>
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="55"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="53"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="84"/>
-      <c r="B41" s="133" t="s">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="81"/>
+      <c r="B41" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="133"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="55"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="136"/>
+      <c r="M41" s="136"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="53"/>
     </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="84"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="57"/>
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="81"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="136"/>
+      <c r="L42" s="136"/>
+      <c r="M42" s="136"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="55"/>
     </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="84"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
-      <c r="D43" s="133"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="57"/>
+    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="81"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="136"/>
+      <c r="M43" s="136"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="55"/>
     </row>
-    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="84"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="57"/>
+    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="81"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="136"/>
+      <c r="L44" s="136"/>
+      <c r="M44" s="136"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="55"/>
     </row>
-    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="84"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="57"/>
+    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="81"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="136"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="55"/>
     </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="84"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="57"/>
+    <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="81"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="136"/>
+      <c r="L46" s="136"/>
+      <c r="M46" s="136"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="55"/>
     </row>
-    <row r="47" spans="1:14" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="84"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="57"/>
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="81"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
+      <c r="K47" s="136"/>
+      <c r="L47" s="136"/>
+      <c r="M47" s="136"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="55"/>
     </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="84"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="82"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="57"/>
+    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="81"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
+      <c r="K48" s="136"/>
+      <c r="L48" s="136"/>
+      <c r="M48" s="136"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="55"/>
     </row>
-    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="84"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="122" t="s">
+    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="81"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="136"/>
+      <c r="L49" s="136"/>
+      <c r="M49" s="136"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="55"/>
+    </row>
+    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="81"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="136"/>
+      <c r="L50" s="136"/>
+      <c r="M50" s="136"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="55"/>
+    </row>
+    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="81"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="136"/>
+      <c r="L51" s="136"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="55"/>
+    </row>
+    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="81"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="136"/>
+      <c r="K52" s="136"/>
+      <c r="L52" s="136"/>
+      <c r="M52" s="136"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="55"/>
+    </row>
+    <row r="53" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="81"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="55"/>
+    </row>
+    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="81"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="80"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="55"/>
+    </row>
+    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="81"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="129" t="s">
+      <c r="D55" s="120"/>
+      <c r="E55" s="121"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="11"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="11"/>
     </row>
-    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="86"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="16"/>
+    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="83"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B41:L45"/>
+  <mergeCells count="47">
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="B41:M52"/>
+    <mergeCell ref="A1:D5"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="C55:F55"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="L27:L28"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="I55:K55"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:C5"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D1:J5"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="E1:K5"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J25:M25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>